--- a/lib/assets/Diffusion_Marketplace.back.xlsx
+++ b/lib/assets/Diffusion_Marketplace.back.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="1501">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -966,6 +966,276 @@
     <t>Publication Link 3</t>
   </si>
   <si>
+    <t>152.133.6.14</t>
+  </si>
+  <si>
+    <t>keith.mcinnes@va.gov</t>
+  </si>
+  <si>
+    <t>Keith.McInnes@va.gov</t>
+  </si>
+  <si>
+    <t>Post-Incarceration Engagement (PIE)</t>
+  </si>
+  <si>
+    <t>Re-entry Peers Help Veterans with Post-Incarceration Transitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peers supplement and extend the services of VA’s Health Care for Re-entry Veterans program.  Greater linkage to Mental Health, Substance Use Treatment, and Housing Services than Comparison Group </t>
+  </si>
+  <si>
+    <t>Veterans leaving incarceration face many challenges.   The Post Incarceration Engagement (PIE) program is a peer-support intervention that supplements the VA’s Health Care for Reentry Veterans (HCRV) services. Linkage and referral efforts focus on helping Veterans connect to and stay engaged in appropriate VA primary care, mental health and substance use treatment services. It also includes active support accessing housing, employment, benefits, legal services and community-based resources. Re-entry peers meet frequently with justice-involved Veterans to help prioritize goals and identify steps to achieve them.  Peers provide mentoring and role modeling to help Veterans reestablish their lives during a challenging adjustment period.</t>
+  </si>
+  <si>
+    <t>Keith McInnes\Principal Investigator</t>
+  </si>
+  <si>
+    <t>Justeen Hyde\Co-Investigator</t>
+  </si>
+  <si>
+    <t>Beth Ann Petrakis\Project Manager</t>
+  </si>
+  <si>
+    <t>Carly Wilson\HCRV Social Worker</t>
+  </si>
+  <si>
+    <t>Michael Kane\Re-entry Peer Specialist</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>1. Pilot - This practice is in the process of initial implementation to assess feasibility and impact at no more than 1-5 facilities.</t>
+  </si>
+  <si>
+    <t>3-6 months</t>
+  </si>
+  <si>
+    <t>Obtain Veteran Justice Programs (VJP) and Homeless Programs support for PIE initiative at your facility.</t>
+  </si>
+  <si>
+    <t>Month 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify supervisor (and champion for the program) who will manage PIE and supervise the peer </t>
+  </si>
+  <si>
+    <t>Peer(s) identified at VA facility who can take on new PIE peer role and duties transferred (or funds are secured to hire a new peer(s) for the PIE peer role and peer(s) hired)</t>
+  </si>
+  <si>
+    <t>Months 2-5</t>
+  </si>
+  <si>
+    <t>Adjust the PIE manual and worksheets to reflect conditions and resources at your VA, and the relationships with your state Department of Corrections (DOC) and county correctional facilities</t>
+  </si>
+  <si>
+    <t>Months 2-4</t>
+  </si>
+  <si>
+    <t>Conduct meetings with reentry specialists at state DOC and/or county correctional facilities to obtain buy-in and cooperation with the PIE initiative</t>
+  </si>
+  <si>
+    <t>Month 2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer(s)  trained with PIE manual, shadow another peer and HCRV social worker and complete any DOC or county trainings to permit entrance to correctional facilities.  </t>
+  </si>
+  <si>
+    <t>Months 5-6</t>
+  </si>
+  <si>
+    <t>Peer(s) begin re-entry work with Veterans</t>
+  </si>
+  <si>
+    <t>Month 6</t>
+  </si>
+  <si>
+    <t>Veterans Justice Programs\Homeless Programs\Health Care for Re-entry Veterans Program</t>
+  </si>
+  <si>
+    <t>VA Facility lacks resources to hire a new peer or repurpose an existing peer.</t>
+  </si>
+  <si>
+    <t>Meet with leadership early on – especially services lines for mental health, social work, homelessness. Also contact suicide prevention teams and opioid teams because of their potential interest in this kind of initiative working with a high risk population.</t>
+  </si>
+  <si>
+    <t>VA facility prefers peers to have primarily an on-campus role.  This limits the PIE peer’s ability to interact with Veterans in the correctional facilities, on day of release, and on other days to help the Veteran meet correctional supervision conditions such as parole and probation, or to provide Veterans with initial housing options if they are not interested in a VA program such as domiciliary.</t>
+  </si>
+  <si>
+    <t>Provide data from PIE (reports and publications) indicating the benefits of being equally active in the community as on the VA medical center campus.</t>
+  </si>
+  <si>
+    <t>State Department of Correction (DOC) and/or county correctional programs do not share data on Veteran inmates which would allow the peer (with the HCRV program) to easily link with these Veterans prior to their release.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct meetings with DOC and county officials early on, and continue to foster those relationships. </t>
+  </si>
+  <si>
+    <t>3. $50,000 - $250,000</t>
+  </si>
+  <si>
+    <t>2. Some complexity</t>
+  </si>
+  <si>
+    <t>2. Two departments</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Modification of an established process</t>
+  </si>
+  <si>
+    <t>Peer Support Specialist</t>
+  </si>
+  <si>
+    <t>Social Worker</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Use of fleet vehicles</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>VA cell phone</t>
+  </si>
+  <si>
+    <t>The state Department of Correction and/or county-level correctional agencies; HCRV specialist provides PIE training</t>
+  </si>
+  <si>
+    <t>Peer support specialist</t>
+  </si>
+  <si>
+    <t>1 week (35-40 hours)</t>
+  </si>
+  <si>
+    <t>Usually it is in person but may also include preparatory readings or videos</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>coffee and snacks for weekly re-entry Veterans group</t>
+  </si>
+  <si>
+    <t>materials for re-entry kits if not provided by homeless or voluntary services</t>
+  </si>
+  <si>
+    <t>Mcinnes.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Reentry: Serving Veterans Behind and Beyond the Wall </t>
+  </si>
+  <si>
+    <t>Our facility data systems improved and enabled the identification of Veterans who had less than 12 months before release. The HCRV specialist tried to meet with each Veteran prior to their release, but sheer numbers, and geographic spread of prisons/jails made this impossible.  A solution was seen in peer support specialists who could be an extension of the HCRV specialist; peers also brought the advantages of lived experience as a Veteran, in recovery, and with knowledge of the criminal justice system, which helped in relationship and trust-building with re-entry Veterans.</t>
+  </si>
+  <si>
+    <t>Reentry mtg 5-21_19_IMG_20190521_092539765_HDR.jpg</t>
+  </si>
+  <si>
+    <t>Re-entry Support Group – led by HCRV social worker and PIE peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Re-entry Support Group is a weekly drop in group open exclusively to HCRV veterans.  Veterans who attend this group are able to share their experiences since being released from incarceration, learn about resources available to them through the VA and outside the VA, and develop a network of support from other veterans who have incarceration experience.  It is a place they can comfortably share some of their common background as well as the problems they face, such as meeting probation stipulations and strategies for finding work or housing if you have a bad CORI or how to get an ID or driver’s license.  Participants use the time to connect with the HCRV specialist and the peer to arrange appointments or to complete paperwork or to learn about upcoming events they may want to attend. </t>
+  </si>
+  <si>
+    <t>reentry backpack from volunteer services_PIE_Bedford MA .jpg</t>
+  </si>
+  <si>
+    <t>HCRV Re-entry Kit</t>
+  </si>
+  <si>
+    <t>Veterans leaving incarceration through the PIE Program are each given a re-entry kit.  A typical re-entry kit provides things a newly released Veteran will need to get started  – weather appropriate clothing, toiletries, shoes, gift cards, agenda book (for appointments), and a backpack.  This reentry kit meets some of the most basic needs of Veterans coming back into the community and the reintegrating Veteran has a concrete and tangible sign of the comprehensive care available at VA including the services of the HCRV specialist and the PIE peer.</t>
+  </si>
+  <si>
+    <t>BethAnn.Petrakis@va.gov</t>
+  </si>
+  <si>
+    <t>Michael Kane\PIE Peer Support Specialist</t>
+  </si>
+  <si>
+    <t>Beth Ann Petrakis\Program Manager</t>
+  </si>
+  <si>
+    <t>Keith McInnes\Research Investigator</t>
+  </si>
+  <si>
+    <t>Justeen Hyde\Research Investigator</t>
+  </si>
+  <si>
+    <t>Wilson.jpg</t>
+  </si>
+  <si>
+    <t>Kane.jpg</t>
+  </si>
+  <si>
+    <t>Petrakis.png</t>
+  </si>
+  <si>
+    <t>Hyde.jpg</t>
+  </si>
+  <si>
+    <t>Domiciliary Residential Treatment Program</t>
+  </si>
+  <si>
+    <t>Substance Use Disorder Treatment</t>
+  </si>
+  <si>
+    <t>Pathway: Exploration of Mission, Aspiration and Purpose</t>
+  </si>
+  <si>
+    <t>Problems Related to Release from Prison</t>
+  </si>
+  <si>
+    <t>Homelessness</t>
+  </si>
+  <si>
+    <t>Substance Use Disorder</t>
+  </si>
+  <si>
+    <t>Legal Problem</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Health Care for Re-entry Veterans\Veterans Justice Outreach</t>
+  </si>
+  <si>
+    <t>Fleet Vehicle</t>
+  </si>
+  <si>
+    <t>Peer support specialist\Social worker\Healthcare for Re-Entry Veterans Outreach Specialist\Veterans Justice Outreach (VJO) Specialist</t>
+  </si>
+  <si>
+    <t>PIE logo.PNG</t>
+  </si>
+  <si>
+    <t>Preliminary PIE Manual_Peer Companion_v 10-31-18.docx</t>
+  </si>
+  <si>
+    <t>Simmons et al_BMC Health Services Research_2017.pdf</t>
+  </si>
+  <si>
+    <t>Kim et al_Health &amp; Justice_2019.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12913-017-2572-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40352-019-0085-x</t>
+  </si>
+  <si>
+    <t>Connecticut VA is currently implementing PIE - the second state to implement this practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 27 is missing from the survey monkey form.  </t>
+  </si>
+  <si>
     <t>152.133.8.202</t>
   </si>
   <si>
@@ -996,9 +1266,6 @@
     <t>3. National Diffusion - Endorsed by a national program office for national dissemination and/or has been implemented at greater than 20% of VA facilities or other defined target market.</t>
   </si>
   <si>
-    <t>3-6 months</t>
-  </si>
-  <si>
     <t>Lack of data collection from field</t>
   </si>
   <si>
@@ -1014,15 +1281,6 @@
     <t>1. Little to no complexity</t>
   </si>
   <si>
-    <t>2. Two departments</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Modification of an established process</t>
-  </si>
-  <si>
     <t>Nursing Staff</t>
   </si>
   <si>
@@ -1035,7 +1293,7 @@
     <t>At most $300 for oral care supplies, no development or sustainment cost</t>
   </si>
   <si>
-    <t>Happen_PracticeOrigin.jpg</t>
+    <t>Happen_PracticeOrigin.png</t>
   </si>
   <si>
     <t>A life-saving initiative called Project HAPPEN (Hospital Acquired Pneumonia Prevention by Engaging Nurses) first took root seven years ago with VHA’s Dr. Shannon Munro’s idea: prevention. Plaque on a patient’s teeth acts like “sticky sandpaper” irritating the mouth and producing bacteria that can easily travel down the throat and into the lungs causing pneumonia.    Leading this prevention effort and ensuring its adoption and diffusion across VHA has accelerated the past two years in VHA’s imbedded culture of innovation. Project HAPPEN is an Innovation Ecosystem success story illustrative of VHA’s transition into a high reliability organization best exemplified by Calvin Crane, a 102-year-old World War II Veteran. Munro fondly recalls Crane in his wheelchair being wheeled down a Salem (Virginia) VA Medical Center hallway when he spied a Project HAPPEN poster on a wall. “I have to hurry back to my room to brush my teeth, so I don’t get pneumonia,” he says. It was a gratifying moment to see an idea in motion, especially because Munro knows that hospital-acquired pneumonia is a significant risk for patients—particularly elderly ones.</t>
@@ -1107,9 +1365,6 @@
     <t>Vha_691</t>
   </si>
   <si>
-    <t>1. Pilot - This practice is in the process of initial implementation to assess feasibility and impact at no more than 1-5 facilities.</t>
-  </si>
-  <si>
     <t>6-12 months</t>
   </si>
   <si>
@@ -1170,15 +1425,9 @@
     <t>2. $10,000 - $50,000</t>
   </si>
   <si>
-    <t>2. Some complexity</t>
-  </si>
-  <si>
     <t>3. Three departments</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>New Clinical Approach or New Process</t>
   </si>
   <si>
@@ -1422,9 +1671,6 @@
     <t>Program provides communication templates in consultation for health IT challenges</t>
   </si>
   <si>
-    <t>3. $50,000 - $250,000</t>
-  </si>
-  <si>
     <t>1. Single department</t>
   </si>
   <si>
@@ -1443,9 +1689,6 @@
     <t>as needed</t>
   </si>
   <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Duration will vary as appropriate</t>
   </si>
   <si>
@@ -2634,57 +2877,6 @@
     <t xml:space="preserve">Any clinical staff can do REACH VA, either as a adjunct duty or a gull-time job.  For that reason, the questions on time and money required were difficult to answer. </t>
   </si>
   <si>
-    <t>Healthy Mouth. Healthy Body: Regular tooth brushing lowers the number of germs</t>
-  </si>
-  <si>
-    <t>Brushing your teeth lowers your chances of developing hospital acquired pneumonia by 40-60%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To reduce the risk of pneumonia, Project HAPPEN encourages staff to assist Veterans in tooth brushing for and with Veterans. Project HAPPEN stands for Hospital-Acquired Pneumonia Prevention by Engaging Nurses to complete oral care. This oral care practice is low cost to implement and saves the VA money by avoiding long hospital stays and reducing deaths. By encouraging tooth brushing, Project HAPPEN can decrease hospital acquired pneumonia by more than 40% and reduce costs by $40,000 per case. In addition to saving the VA money, Project HAPPEN is saving Veteran lives. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon Munro - Creator of the Practice </t>
-  </si>
-  <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>https://www.va.gov/find-locations/facility/vha_658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office of Nursing Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent data collection </t>
-  </si>
-  <si>
-    <t>Mitigate risk by working with National Stakeholders to establish a directive for all new implementation sites to collect data for at least 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental Staff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care Supplies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A life-saving initiative called Project HAPPEN (Hospital Acquired Pneumonia Prevention by Engaging Nurses) first took root seven years ago with VHA’s Dr. Shannon Munro’s idea: prevention. Plaque on a patient’s teeth acts like “sticky sandpaper” irritating the mouth and producing bacteria that can easily travel down the throat and into the lungs causing pneumonia.  Leading this prevention effort and ensuring its adoption and diffusion across VHA has accelerated the past two years in VHA’s imbedded culture of innovation. Project HAPPEN is an Innovation Ecosystem success story illustrative of VHA’s transition into a high reliability organization best exemplified by Calvin Crane, a 102-year-old World War II Veteran. Munro fondly recalls Crane in his wheelchair being wheeled down a Salem (Virginia) VA Medical Center hallway when he spied a Project HAPPEN poster on a wall. “I have to hurry back to my room to brush my teeth, so I don’t get pneumonia,” he says. It was a gratifying moment to see an idea in motion, especially because Munro knows that hospital-acquired pneumonia is a significant risk for patients—particularly elderly ones.  </t>
-  </si>
-  <si>
-    <t>PIc_Impact1_edited.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devin Harrison/Diffusion Specialist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiela Sullivan/Office of Nursing Services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medial Surgical Units </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentist </t>
-  </si>
-  <si>
     <t>76.240.37.244</t>
   </si>
   <si>
@@ -2718,9 +2910,6 @@
     <t>Identify Practice Champion and implementation team</t>
   </si>
   <si>
-    <t>Month 1</t>
-  </si>
-  <si>
     <t>Define project scope (e.g., via Project Charter)</t>
   </si>
   <si>
@@ -3153,37 +3342,43 @@
     <t>Depends on local facility policy</t>
   </si>
   <si>
+    <t>RapidNaloxone_PracticeOrigin.png</t>
+  </si>
+  <si>
+    <t>Pam Bellino started with one AED cabinet in 2016, and kept adding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was at least 10 minutes from the time a housekeeper pushed into a bathroom on the Brockton VA campus and found a man on the floor to the time paramedics arrived.    They used naloxone, common brand name Narcan, to reverse the man's opioid overdose. Brain damage can begin after just five minutes without oxygen. Pam Bellino, patient safety manager for VA Boston, which includes Brockton, read the incident report back in December 2015 with alarm.    "That was the tipping point for us to say, 'We need to get this naloxone immediately available, without locking it up,' " she said.    The easiest way to make naloxone immediately available, Bellino reasoned, would be to add the drug to AED cabinets — those metal boxes on the walls of VA cafeterias, gyms, warehouses, clinic waiting rooms and some rehab housing.  https://www.wbur.org/commonhealth/2018/09/19/boston-va-narcan-aed-boxes  </t>
+  </si>
+  <si>
+    <t>Impact1_Naloxone.png</t>
+  </si>
+  <si>
+    <t>vharapidnaloxone@va.gov</t>
+  </si>
+  <si>
+    <t>Pam Bellino \ Patient Safety Manager</t>
+  </si>
+  <si>
+    <t>Mary Burkhardt \ Pharmacy Executive National Center for Patient Safety</t>
+  </si>
+  <si>
+    <t>Dr. Jennifer Burden \ Deputy Director, MH RRTP</t>
+  </si>
+  <si>
+    <t>Carl McCoy \ Diffusion Specialist</t>
+  </si>
+  <si>
+    <t>Olivia_SquareHeadshot.png</t>
+  </si>
+  <si>
     <t>Pam Bellino.jpg</t>
   </si>
   <si>
-    <t>Pam Bellino started with one AED cabinet in 2016, and kept adding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was at least 10 minutes from the time a housekeeper pushed into a bathroom on the Brockton VA campus and found a man on the floor to the time paramedics arrived.    They used naloxone, common brand name Narcan, to reverse the man's opioid overdose. Brain damage can begin after just five minutes without oxygen. Pam Bellino, patient safety manager for VA Boston, which includes Brockton, read the incident report back in December 2015 with alarm.    "That was the tipping point for us to say, 'We need to get this naloxone immediately available, without locking it up,' " she said.    The easiest way to make naloxone immediately available, Bellino reasoned, would be to add the drug to AED cabinets — those metal boxes on the walls of VA cafeterias, gyms, warehouses, clinic waiting rooms and some rehab housing.  https://www.wbur.org/commonhealth/2018/09/19/boston-va-narcan-aed-boxes  </t>
-  </si>
-  <si>
-    <t>vharapidnaloxone@va.gov</t>
-  </si>
-  <si>
-    <t>Pam Bellino \ Patient Safety Manager</t>
-  </si>
-  <si>
-    <t>Mary Burkhardt \ Pharmacy Executive National Center for Patient Safety</t>
-  </si>
-  <si>
-    <t>Dr. Jennifer Burden \ Deputy Director, MH RRTP</t>
-  </si>
-  <si>
-    <t>Carl McCoy \ Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>Oliva.jpg</t>
-  </si>
-  <si>
     <t>Mary Burkhardt.jpg</t>
   </si>
   <si>
-    <t>Profile.jpg</t>
+    <t>CarlMcCoy_SquareHeadshot.png</t>
   </si>
   <si>
     <t>Opioid Abuse</t>
@@ -4321,62 +4516,6 @@
   </si>
   <si>
     <t>https://www.vapulse.net/groups/flow3</t>
-  </si>
-  <si>
-    <t>66.41.83.211</t>
-  </si>
-  <si>
-    <t>tom@skylight.digital</t>
-  </si>
-  <si>
-    <t>HAPPEN</t>
-  </si>
-  <si>
-    <t>Prevent pneumonia with oral care</t>
-  </si>
-  <si>
-    <t>Preventing non-ventilator associated hospital-acquired pneumonia (NV-HAP)</t>
-  </si>
-  <si>
-    <t>This practice ensures inpatient, non-ventilator Veterans receive oral care by providing consistent staff training, educating patients on oral care and its association with pneumonia, and standardizing the procurement process for obtaining oral care supplies. HAPPEN is low cost to implement (less than $5.00 per patient for oral care supplies), has a high return on investment, and enhances the quality of care provided to Veterans. Nurses. By engaging Veterans in proper oral care practices, nurses can teach Veterans about the importance of good oral hygiene, and its ability to reduce Veterans’ hospital stays, while reducing the risk of readmission.</t>
-  </si>
-  <si>
-    <t>Dr. Shannon Munro/Team Lead</t>
-  </si>
-  <si>
-    <t>Sheila Cox Sullivan, PHD RN/Director, Research EBP &amp; Analytics</t>
-  </si>
-  <si>
-    <t>Devin Harrison/Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>vha_658</t>
-  </si>
-  <si>
-    <t>Office of Nursing Services\VA Dentistry</t>
-  </si>
-  <si>
-    <t>Non reporting and inconsistencies in reporting can make it hard to tell if the practice is being used correctly</t>
-  </si>
-  <si>
-    <t>Utilize template to collect and report data. Requirement for diligent and transparent data collection</t>
-  </si>
-  <si>
-    <t>This can result in the practice not being diffused</t>
-  </si>
-  <si>
-    <t>Celebrate success to give relevance to the data</t>
-  </si>
-  <si>
-    <t>Project HAPPEN started at the Salem VAMC (Salem, VA) and has been replicated at the Michael E. DeBakey VAMC (Houston, TX) through facilitated implementation with the Diffusion of Excellence. It is currently being implemented across VISN 6 Community Living Center (CLC) and medical-surgical inpatient units. - -Shannon Munro is a Nurse Researcher and Family Nurse Practitioner at Salem VAMC. She’s been with VA for over 15 years, caring for Veterans and conducting research directed toward the improvement of Veteran healthcare.</t>
-  </si>
-  <si>
-    <t>Devin Harrison, Diffusion Specialist</t>
-  </si>
-  <si>
-    <t>https://www.vapulse.net/ groups/project-happen</t>
   </si>
 </sst>
 </file>
@@ -6059,124 +6198,265 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.0742843257E10</v>
+        <v>1.0749041409E10</v>
       </c>
       <c r="B3">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C3" s="2">
-        <v>43605.4338425926</v>
+        <v>43607.5493287037</v>
       </c>
       <c r="D3" s="2">
-        <v>43607.45122685185</v>
+        <v>43607.65381944444</v>
       </c>
       <c r="E3" t="s">
         <v>317</v>
       </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O3" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="P3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" t="s">
+        <v>328</v>
       </c>
       <c r="T3" t="s">
-        <v>324</v>
-      </c>
-      <c r="U3" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="U3">
+        <v>518.0</v>
       </c>
       <c r="V3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="W3">
-        <v>37.0</v>
+        <v>2.0</v>
       </c>
       <c r="X3">
         <v>0.0</v>
       </c>
       <c r="Y3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>110</v>
+        <v>331</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>344</v>
       </c>
       <c r="AS3" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" t="s">
-        <v>114</v>
+      <c r="BA3" t="s">
+        <v>345</v>
       </c>
       <c r="BB3" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="BC3" t="s">
-        <v>329</v>
+        <v>347</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>351</v>
       </c>
       <c r="BH3" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="BI3" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ3" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK3" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM3" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN3" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="BO3" t="s">
-        <v>337</v>
+        <v>358</v>
+      </c>
+      <c r="BS3">
+        <v>40.0</v>
+      </c>
+      <c r="BT3">
+        <v>4.0</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>359</v>
       </c>
       <c r="CC3" t="s">
-        <v>338</v>
+        <v>360</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>361</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>363</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>364</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>365</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>366</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>367</v>
       </c>
       <c r="CQ3" t="s">
-        <v>339</v>
+        <v>368</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>369</v>
       </c>
       <c r="CW3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC3" t="s">
-        <v>340</v>
+        <v>370</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>371</v>
       </c>
       <c r="DE3" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="DF3" t="s">
-        <v>342</v>
+        <v>373</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>374</v>
       </c>
       <c r="DH3" t="s">
-        <v>343</v>
+        <v>375</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>376</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>377</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>379</v>
       </c>
       <c r="DP3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="DQ3" t="s">
-        <v>345</v>
+        <v>380</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>383</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>384</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>370</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>387</v>
       </c>
       <c r="DZ3" t="s">
         <v>157</v>
@@ -6184,414 +6464,306 @@
       <c r="EA3" t="s">
         <v>158</v>
       </c>
-      <c r="EB3" t="s">
-        <v>159</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>165</v>
+      <c r="EC3" t="s">
+        <v>160</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>161</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>162</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>168</v>
       </c>
       <c r="EQ3" t="s">
-        <v>346</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>203</v>
-      </c>
-      <c r="GT3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FW3" t="s">
         <v>119</v>
       </c>
-      <c r="HG3" t="s">
-        <v>212</v>
-      </c>
-      <c r="HO3" t="s">
+      <c r="GE3" t="s">
+        <v>184</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>389</v>
+      </c>
+      <c r="HH3" t="s">
         <v>119</v>
       </c>
-      <c r="JQ3" t="s">
-        <v>261</v>
-      </c>
-      <c r="LO3" t="s">
-        <v>302</v>
-      </c>
-      <c r="LZ3" t="s">
-        <v>311</v>
+      <c r="HQ3" t="s">
+        <v>390</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>391</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>392</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>393</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>394</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>395</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>223</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>236</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>239</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>223</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>247</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>248</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>249</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>250</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>251</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>259</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>396</v>
+      </c>
+      <c r="LD3" t="s">
+        <v>295</v>
+      </c>
+      <c r="LM3" t="s">
+        <v>301</v>
+      </c>
+      <c r="LP3" t="s">
+        <v>397</v>
+      </c>
+      <c r="MA3" t="s">
+        <v>398</v>
       </c>
       <c r="MB3" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="MI3" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="MK3" t="s">
-        <v>349</v>
+        <v>355</v>
+      </c>
+      <c r="ML3" t="s">
+        <v>401</v>
+      </c>
+      <c r="MM3" t="s">
+        <v>402</v>
+      </c>
+      <c r="MN3" t="s">
+        <v>403</v>
+      </c>
+      <c r="MO3" t="s">
+        <v>404</v>
+      </c>
+      <c r="MS3" t="s">
+        <v>405</v>
+      </c>
+      <c r="MT3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.0739996834E10</v>
+        <v>1.0742843257E10</v>
       </c>
       <c r="B4">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C4" s="2">
-        <v>43603.49221064815</v>
+        <v>43605.4338425926</v>
       </c>
       <c r="D4" s="2">
-        <v>43607.36957175926</v>
+        <v>43607.61747685185</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="M4" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="N4" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="O4" t="s">
-        <v>357</v>
-      </c>
-      <c r="P4" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" t="s">
-        <v>360</v>
-      </c>
-      <c r="S4" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="T4" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="U4" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="V4" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="W4">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="X4">
         <v>0.0</v>
       </c>
       <c r="Y4" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>375</v>
+        <v>331</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>110</v>
       </c>
       <c r="AS4" t="s">
         <v>113</v>
       </c>
-      <c r="BA4" t="s">
-        <v>377</v>
+      <c r="AT4" t="s">
+        <v>114</v>
       </c>
       <c r="BB4" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="BC4" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="BH4" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="BI4" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="BJ4" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="BK4" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="BL4" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="BM4" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="BN4" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="BO4" t="s">
-        <v>390</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>391</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>392</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>393</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>394</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>395</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>396</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>398</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>398</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>398</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>399</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="CC4" t="s">
-        <v>400</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>401</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>392</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>402</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>403</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="CQ4" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="CW4" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>405</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>406</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>407</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="DC4" t="s">
-        <v>409</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="DE4" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="DF4" t="s">
-        <v>412</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="DH4" t="s">
-        <v>414</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>415</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>416</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>417</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>418</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>419</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="DP4" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="DQ4" t="s">
-        <v>422</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>423</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="DZ4" t="s">
         <v>157</v>
       </c>
-      <c r="EC4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>178</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>206</v>
+      <c r="EA4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>165</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>432</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>203</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>119</v>
       </c>
       <c r="HG4" t="s">
         <v>212</v>
       </c>
-      <c r="HP4" t="s">
-        <v>218</v>
-      </c>
-      <c r="JE4" t="s">
-        <v>252</v>
+      <c r="HO4" t="s">
+        <v>119</v>
       </c>
       <c r="JQ4" t="s">
         <v>261</v>
       </c>
-      <c r="LD4" t="s">
-        <v>295</v>
-      </c>
-      <c r="LQ4" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR4" t="s">
-        <v>304</v>
-      </c>
-      <c r="LT4" t="s">
-        <v>306</v>
+      <c r="LO4" t="s">
+        <v>302</v>
+      </c>
+      <c r="LZ4" t="s">
+        <v>311</v>
       </c>
       <c r="MB4" t="s">
-        <v>425</v>
-      </c>
-      <c r="MC4" t="s">
-        <v>426</v>
-      </c>
-      <c r="MD4" t="s">
-        <v>427</v>
-      </c>
-      <c r="ME4" t="s">
-        <v>428</v>
-      </c>
-      <c r="MF4" t="s">
-        <v>429</v>
-      </c>
-      <c r="MG4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="MI4" t="s">
-        <v>431</v>
-      </c>
-      <c r="MJ4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="MK4" t="s">
-        <v>433</v>
-      </c>
-      <c r="ML4" t="s">
-        <v>434</v>
-      </c>
-      <c r="MN4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.0738602185E10</v>
+        <v>1.0739996834E10</v>
       </c>
       <c r="B5">
         <v>2.33326486E8</v>
       </c>
       <c r="C5" s="2">
-        <v>43602.46909722222</v>
+        <v>43603.49221064815</v>
       </c>
       <c r="D5" s="2">
-        <v>43607.43748842592</v>
+        <v>43607.36957175926</v>
       </c>
       <c r="E5" t="s">
         <v>436</v>
@@ -6636,13 +6808,13 @@
         <v>449</v>
       </c>
       <c r="V5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="W5">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="X5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" t="s">
         <v>450</v>
@@ -6681,10 +6853,13 @@
         <v>461</v>
       </c>
       <c r="AL5" t="s">
+        <v>460</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA5" t="s">
         <v>462</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>109</v>
       </c>
       <c r="BB5" t="s">
         <v>463</v>
@@ -6708,82 +6883,88 @@
         <v>469</v>
       </c>
       <c r="BI5" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ5" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK5" t="s">
         <v>470</v>
       </c>
       <c r="BL5" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM5" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="BN5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="BO5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="BP5" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>475</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>476</v>
       </c>
       <c r="BS5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BT5" t="s">
+        <v>478</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>481</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>481</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>481</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>482</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>482</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>483</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>484</v>
+      </c>
+      <c r="CI5" t="s">
         <v>475</v>
       </c>
-      <c r="BU5" t="s">
-        <v>475</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>476</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>477</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>477</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>478</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>479</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>480</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>481</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>482</v>
-      </c>
-      <c r="CH5" t="s">
+      <c r="CN5" t="s">
+        <v>485</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>486</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>487</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>483</v>
       </c>
-      <c r="CI5" t="s">
-        <v>484</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>456</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>485</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>486</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>487</v>
-      </c>
       <c r="CW5" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX5" t="s">
         <v>488</v>
@@ -6794,43 +6975,43 @@
       <c r="CZ5" t="s">
         <v>490</v>
       </c>
+      <c r="DA5" t="s">
+        <v>491</v>
+      </c>
       <c r="DC5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="DD5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="DE5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="DF5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="DG5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="DH5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="DI5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="DJ5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="DK5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="DL5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="DM5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="DN5" t="s">
-        <v>502</v>
-      </c>
-      <c r="DO5" t="s">
         <v>503</v>
       </c>
       <c r="DP5" t="s">
@@ -6839,32 +7020,23 @@
       <c r="DQ5" t="s">
         <v>505</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="DU5" t="s">
         <v>506</v>
       </c>
-      <c r="DU5" t="s">
+      <c r="DV5" t="s">
         <v>507</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>508</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>509</v>
       </c>
       <c r="DZ5" t="s">
         <v>157</v>
       </c>
-      <c r="EA5" t="s">
-        <v>158</v>
-      </c>
       <c r="EC5" t="s">
         <v>160</v>
       </c>
-      <c r="ED5" t="s">
-        <v>161</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>172</v>
+      <c r="EG5" t="s">
+        <v>164</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>168</v>
       </c>
       <c r="ES5" t="s">
         <v>174</v>
@@ -6872,26 +7044,17 @@
       <c r="ET5" t="s">
         <v>175</v>
       </c>
-      <c r="EU5" t="s">
-        <v>176</v>
-      </c>
       <c r="EW5" t="s">
         <v>178</v>
       </c>
-      <c r="FE5" t="s">
-        <v>186</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>193</v>
-      </c>
       <c r="GS5" t="s">
         <v>206</v>
       </c>
       <c r="HG5" t="s">
         <v>212</v>
       </c>
-      <c r="HJ5" t="s">
-        <v>213</v>
+      <c r="HP5" t="s">
+        <v>218</v>
       </c>
       <c r="JE5" t="s">
         <v>252</v>
@@ -6899,199 +7062,157 @@
       <c r="JQ5" t="s">
         <v>261</v>
       </c>
-      <c r="JT5" t="s">
-        <v>263</v>
-      </c>
-      <c r="KC5" t="s">
-        <v>272</v>
-      </c>
-      <c r="KD5" t="s">
-        <v>273</v>
-      </c>
-      <c r="KI5" t="s">
-        <v>278</v>
-      </c>
-      <c r="KR5" t="s">
-        <v>285</v>
-      </c>
-      <c r="KX5" t="s">
-        <v>291</v>
-      </c>
       <c r="LD5" t="s">
         <v>295</v>
       </c>
-      <c r="LE5" t="s">
-        <v>256</v>
-      </c>
-      <c r="LI5" t="s">
-        <v>299</v>
-      </c>
-      <c r="LM5" t="s">
-        <v>301</v>
-      </c>
       <c r="LQ5" t="s">
         <v>303</v>
       </c>
       <c r="LR5" t="s">
         <v>304</v>
       </c>
-      <c r="LS5" t="s">
-        <v>305</v>
-      </c>
       <c r="LT5" t="s">
         <v>306</v>
       </c>
-      <c r="LU5" t="s">
-        <v>307</v>
-      </c>
-      <c r="LV5" t="s">
-        <v>308</v>
-      </c>
-      <c r="LW5" t="s">
-        <v>309</v>
-      </c>
-      <c r="LX5" t="s">
-        <v>310</v>
-      </c>
       <c r="MB5" t="s">
+        <v>508</v>
+      </c>
+      <c r="MC5" t="s">
+        <v>509</v>
+      </c>
+      <c r="MD5" t="s">
         <v>510</v>
       </c>
-      <c r="MC5" t="s">
+      <c r="ME5" t="s">
         <v>511</v>
       </c>
-      <c r="MD5" t="s">
+      <c r="MF5" t="s">
         <v>512</v>
       </c>
-      <c r="ME5" t="s">
+      <c r="MG5" t="s">
         <v>513</v>
       </c>
-      <c r="MF5" t="s">
+      <c r="MI5" t="s">
         <v>514</v>
       </c>
-      <c r="MG5" t="s">
+      <c r="MJ5" t="s">
         <v>515</v>
       </c>
-      <c r="MH5" t="s">
+      <c r="MK5" t="s">
         <v>516</v>
       </c>
+      <c r="ML5" t="s">
+        <v>517</v>
+      </c>
       <c r="MN5" t="s">
-        <v>517</v>
-      </c>
-      <c r="MO5" t="s">
         <v>518</v>
-      </c>
-      <c r="MP5" t="s">
-        <v>519</v>
-      </c>
-      <c r="MQ5" t="s">
-        <v>520</v>
-      </c>
-      <c r="MS5" t="s">
-        <v>521</v>
-      </c>
-      <c r="MT5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.0737592918E10</v>
+        <v>1.0738602185E10</v>
       </c>
       <c r="B6">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C6" s="2">
-        <v>43602.23665509259</v>
+        <v>43602.46909722222</v>
       </c>
       <c r="D6" s="2">
-        <v>43607.44653935185</v>
+        <v>43607.43748842592</v>
       </c>
       <c r="E6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" t="s">
         <v>523</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>524</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>525</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>526</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>527</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>528</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>529</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>530</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>531</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>532</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
+        <v>416</v>
+      </c>
+      <c r="W6">
+        <v>11.0</v>
+      </c>
+      <c r="X6">
+        <v>1.0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>533</v>
       </c>
-      <c r="T6" t="s">
-        <v>324</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>534</v>
       </c>
-      <c r="V6" t="s">
-        <v>326</v>
-      </c>
-      <c r="W6">
-        <v>44.0</v>
-      </c>
-      <c r="X6">
-        <v>5.0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>535</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>536</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>537</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>538</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>539</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>540</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>541</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>542</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>543</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>544</v>
       </c>
-      <c r="AS6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="AL6" t="s">
         <v>545</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>109</v>
       </c>
       <c r="BB6" t="s">
         <v>546</v>
@@ -7112,172 +7233,184 @@
         <v>551</v>
       </c>
       <c r="BH6" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="BI6" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ6" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK6" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL6" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="BM6" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BO6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BP6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS6">
-        <v>4.0</v>
-      </c>
-      <c r="BT6">
-        <v>2.0</v>
-      </c>
-      <c r="BU6">
-        <v>2.0</v>
-      </c>
-      <c r="BV6">
-        <v>2.0</v>
-      </c>
-      <c r="BW6">
-        <v>2.0</v>
+        <v>555</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>556</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>557</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>557</v>
       </c>
       <c r="BX6" t="s">
-        <v>554</v>
+        <v>359</v>
       </c>
       <c r="BY6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="BZ6" t="s">
-        <v>554</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>554</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="CC6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="CD6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="CE6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="CF6" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>563</v>
       </c>
       <c r="CH6" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="CI6" t="s">
-        <v>552</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>553</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="CN6" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="CO6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="CP6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="CQ6" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="CW6" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>569</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>570</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>571</v>
       </c>
       <c r="DC6" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="DD6" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="DE6" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="DF6" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="DG6" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="DH6" t="s">
-        <v>568</v>
+        <v>577</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>578</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>579</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>580</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>581</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>582</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>583</v>
       </c>
       <c r="DO6" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="DP6" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="DQ6" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="DR6" t="s">
-        <v>531</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>532</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="DU6" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="DV6" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="DW6" t="s">
-        <v>572</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>573</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>574</v>
+        <v>590</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>158</v>
       </c>
       <c r="EC6" t="s">
         <v>160</v>
       </c>
+      <c r="ED6" t="s">
+        <v>161</v>
+      </c>
       <c r="EP6" t="s">
         <v>172</v>
       </c>
-      <c r="FV6" t="s">
-        <v>203</v>
+      <c r="ES6" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>193</v>
       </c>
       <c r="GS6" t="s">
         <v>206</v>
@@ -7285,8 +7418,8 @@
       <c r="HG6" t="s">
         <v>212</v>
       </c>
-      <c r="HP6" t="s">
-        <v>218</v>
+      <c r="HJ6" t="s">
+        <v>213</v>
       </c>
       <c r="JE6" t="s">
         <v>252</v>
@@ -7294,483 +7427,621 @@
       <c r="JQ6" t="s">
         <v>261</v>
       </c>
-      <c r="LO6" t="s">
-        <v>302</v>
-      </c>
-      <c r="LZ6" t="s">
-        <v>311</v>
+      <c r="JT6" t="s">
+        <v>263</v>
+      </c>
+      <c r="KC6" t="s">
+        <v>272</v>
+      </c>
+      <c r="KD6" t="s">
+        <v>273</v>
+      </c>
+      <c r="KI6" t="s">
+        <v>278</v>
+      </c>
+      <c r="KR6" t="s">
+        <v>285</v>
+      </c>
+      <c r="KX6" t="s">
+        <v>291</v>
+      </c>
+      <c r="LD6" t="s">
+        <v>295</v>
+      </c>
+      <c r="LE6" t="s">
+        <v>256</v>
+      </c>
+      <c r="LI6" t="s">
+        <v>299</v>
+      </c>
+      <c r="LM6" t="s">
+        <v>301</v>
+      </c>
+      <c r="LQ6" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR6" t="s">
+        <v>304</v>
+      </c>
+      <c r="LS6" t="s">
+        <v>305</v>
+      </c>
+      <c r="LT6" t="s">
+        <v>306</v>
+      </c>
+      <c r="LU6" t="s">
+        <v>307</v>
+      </c>
+      <c r="LV6" t="s">
+        <v>308</v>
+      </c>
+      <c r="LW6" t="s">
+        <v>309</v>
+      </c>
+      <c r="LX6" t="s">
+        <v>310</v>
       </c>
       <c r="MB6" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="MC6" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="MD6" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="ME6" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="MF6" t="s">
-        <v>579</v>
-      </c>
-      <c r="MI6" t="s">
-        <v>580</v>
-      </c>
-      <c r="MJ6" t="s">
-        <v>581</v>
-      </c>
-      <c r="MK6" t="s">
-        <v>582</v>
-      </c>
-      <c r="ML6" t="s">
-        <v>583</v>
+        <v>595</v>
+      </c>
+      <c r="MG6" t="s">
+        <v>596</v>
+      </c>
+      <c r="MH6" t="s">
+        <v>597</v>
       </c>
       <c r="MN6" t="s">
-        <v>584</v>
+        <v>598</v>
+      </c>
+      <c r="MO6" t="s">
+        <v>599</v>
+      </c>
+      <c r="MP6" t="s">
+        <v>600</v>
       </c>
       <c r="MQ6" t="s">
-        <v>585</v>
-      </c>
-      <c r="MR6" t="s">
-        <v>586</v>
+        <v>601</v>
+      </c>
+      <c r="MS6" t="s">
+        <v>602</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.0737530206E10</v>
+        <v>1.0737592918E10</v>
       </c>
       <c r="B7">
         <v>2.26101601E8</v>
       </c>
       <c r="C7" s="2">
-        <v>43602.20869212963</v>
+        <v>43602.23665509259</v>
       </c>
       <c r="D7" s="2">
-        <v>43607.55125</v>
+        <v>43607.44653935185</v>
       </c>
       <c r="E7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="J7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="K7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="L7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="M7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="N7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="O7" t="s">
-        <v>593</v>
+        <v>610</v>
+      </c>
+      <c r="P7" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>612</v>
+      </c>
+      <c r="R7" t="s">
+        <v>613</v>
+      </c>
+      <c r="S7" t="s">
+        <v>614</v>
       </c>
       <c r="T7" t="s">
-        <v>594</v>
+        <v>414</v>
       </c>
       <c r="U7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="V7" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="W7">
-        <v>6.0</v>
+        <v>44.0</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y7" t="s">
         <v>450</v>
       </c>
       <c r="AA7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="AB7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="AC7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="AD7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="AE7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="AF7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="AG7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="AH7" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>115</v>
+        <v>623</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>625</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>626</v>
       </c>
       <c r="BB7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="BC7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="BD7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="BE7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="BF7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="BG7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="BH7" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
       <c r="BI7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="BJ7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK7" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM7" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="BN7" t="s">
+        <v>633</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BS7">
+        <v>4.0</v>
+      </c>
+      <c r="BT7">
+        <v>2.0</v>
+      </c>
+      <c r="BU7">
+        <v>2.0</v>
+      </c>
+      <c r="BV7">
+        <v>2.0</v>
+      </c>
+      <c r="BW7">
+        <v>2.0</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>635</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>635</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>636</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>637</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>638</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>639</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>640</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>633</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>634</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>635</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>641</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>642</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>643</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>355</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>644</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>645</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>646</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>647</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>649</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>650</v>
+      </c>
+      <c r="DP7" t="s">
         <v>610</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="DQ7" t="s">
         <v>611</v>
       </c>
-      <c r="BX7" t="s">
-        <v>476</v>
-      </c>
-      <c r="CH7" t="s">
+      <c r="DR7" t="s">
         <v>612</v>
       </c>
-      <c r="CI7" t="s">
-        <v>610</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>600</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>334</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>334</v>
-      </c>
-      <c r="DD7" t="s">
+      <c r="DS7" t="s">
         <v>613</v>
       </c>
-      <c r="DE7" t="s">
+      <c r="DT7" t="s">
         <v>614</v>
       </c>
-      <c r="DF7" t="s">
-        <v>615</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>616</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>617</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>618</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>619</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>157</v>
+      <c r="DU7" t="s">
+        <v>651</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>652</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>653</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>654</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>655</v>
       </c>
       <c r="EC7" t="s">
         <v>160</v>
       </c>
-      <c r="EO7" t="s">
-        <v>119</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>119</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>119</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>119</v>
-      </c>
-      <c r="JF7" t="s">
-        <v>119</v>
-      </c>
-      <c r="JJ7" t="s">
-        <v>256</v>
-      </c>
-      <c r="JU7" t="s">
-        <v>264</v>
-      </c>
-      <c r="LC7" t="s">
-        <v>294</v>
-      </c>
-      <c r="LD7" t="s">
-        <v>295</v>
-      </c>
-      <c r="LE7" t="s">
-        <v>256</v>
-      </c>
-      <c r="LV7" t="s">
-        <v>308</v>
+      <c r="EP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>203</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>206</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>212</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>218</v>
+      </c>
+      <c r="JE7" t="s">
+        <v>252</v>
+      </c>
+      <c r="JQ7" t="s">
+        <v>261</v>
+      </c>
+      <c r="LO7" t="s">
+        <v>302</v>
+      </c>
+      <c r="LZ7" t="s">
+        <v>311</v>
+      </c>
+      <c r="MB7" t="s">
+        <v>656</v>
       </c>
       <c r="MC7" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="MD7" t="s">
-        <v>621</v>
+        <v>658</v>
+      </c>
+      <c r="ME7" t="s">
+        <v>659</v>
+      </c>
+      <c r="MF7" t="s">
+        <v>660</v>
+      </c>
+      <c r="MI7" t="s">
+        <v>661</v>
+      </c>
+      <c r="MJ7" t="s">
+        <v>662</v>
       </c>
       <c r="MK7" t="s">
-        <v>620</v>
+        <v>663</v>
+      </c>
+      <c r="ML7" t="s">
+        <v>664</v>
+      </c>
+      <c r="MN7" t="s">
+        <v>665</v>
+      </c>
+      <c r="MQ7" t="s">
+        <v>666</v>
+      </c>
+      <c r="MR7" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.0734974352E10</v>
+        <v>1.0737530206E10</v>
       </c>
       <c r="B8">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C8" s="2">
-        <v>43601.2716087963</v>
+        <v>43602.20869212963</v>
       </c>
       <c r="D8" s="2">
-        <v>43606.39302083333</v>
+        <v>43607.55125</v>
       </c>
       <c r="E8" t="s">
-        <v>622</v>
-      </c>
-      <c r="F8" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="J8" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="K8" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="L8" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="M8" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="N8" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="O8" t="s">
-        <v>628</v>
-      </c>
-      <c r="P8" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>630</v>
-      </c>
-      <c r="R8" t="s">
-        <v>631</v>
-      </c>
-      <c r="S8" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="T8" t="s">
-        <v>633</v>
-      </c>
-      <c r="U8">
-        <v>642.0</v>
+        <v>675</v>
+      </c>
+      <c r="U8" t="s">
+        <v>676</v>
       </c>
       <c r="V8" t="s">
-        <v>326</v>
+        <v>677</v>
       </c>
       <c r="W8">
-        <v>49.0</v>
+        <v>6.0</v>
       </c>
       <c r="X8">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="AA8" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="AB8" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="AC8" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="AD8" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="AE8" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="AF8" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="AG8" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="AH8" t="s">
-        <v>640</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>113</v>
+        <v>684</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>110</v>
       </c>
       <c r="AU8" t="s">
         <v>115</v>
       </c>
       <c r="BB8" t="s">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="BC8" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="BD8" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="BE8" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="BF8" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="BG8" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="BH8" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI8" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ8" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK8" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL8" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM8" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN8" t="s">
-        <v>647</v>
-      </c>
-      <c r="BS8">
-        <v>1.0</v>
+        <v>691</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>692</v>
       </c>
       <c r="BX8" t="s">
-        <v>476</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="CH8" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="CI8" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="CN8" t="s">
-        <v>651</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>652</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>648</v>
+        <v>681</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>355</v>
       </c>
       <c r="CW8" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>653</v>
+        <v>355</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>694</v>
       </c>
       <c r="DE8" t="s">
-        <v>654</v>
+        <v>695</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>696</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>697</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>698</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>699</v>
       </c>
       <c r="DP8" t="s">
-        <v>628</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>629</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>630</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>632</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>655</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>656</v>
+        <v>700</v>
       </c>
       <c r="DZ8" t="s">
         <v>157</v>
       </c>
-      <c r="EA8" t="s">
-        <v>158</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>159</v>
-      </c>
       <c r="EC8" t="s">
         <v>160</v>
       </c>
-      <c r="ED8" t="s">
-        <v>161</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>168</v>
-      </c>
-      <c r="FX8" t="s">
-        <v>657</v>
-      </c>
-      <c r="GK8" t="s">
-        <v>194</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>657</v>
+      <c r="EO8" t="s">
+        <v>119</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>119</v>
+      </c>
+      <c r="GT8" t="s">
+        <v>119</v>
       </c>
       <c r="HH8" t="s">
         <v>119</v>
@@ -7778,139 +8049,130 @@
       <c r="HO8" t="s">
         <v>119</v>
       </c>
-      <c r="HR8" t="s">
-        <v>658</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>659</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>660</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>233</v>
-      </c>
-      <c r="JP8" t="s">
+      <c r="JF8" t="s">
         <v>119</v>
       </c>
-      <c r="LN8" t="s">
-        <v>119</v>
-      </c>
-      <c r="LQ8" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR8" t="s">
-        <v>304</v>
-      </c>
-      <c r="MA8" t="s">
-        <v>661</v>
+      <c r="JJ8" t="s">
+        <v>256</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>264</v>
+      </c>
+      <c r="LC8" t="s">
+        <v>294</v>
+      </c>
+      <c r="LD8" t="s">
+        <v>295</v>
+      </c>
+      <c r="LE8" t="s">
+        <v>256</v>
+      </c>
+      <c r="LV8" t="s">
+        <v>308</v>
       </c>
       <c r="MC8" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="MD8" t="s">
-        <v>663</v>
-      </c>
-      <c r="ME8" t="s">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="MK8" t="s">
-        <v>665</v>
-      </c>
-      <c r="MT8" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.0734653362E10</v>
+        <v>1.0734974352E10</v>
       </c>
       <c r="B9">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C9" s="2">
-        <v>43601.17997685185</v>
+        <v>43601.2716087963</v>
       </c>
       <c r="D9" s="2">
-        <v>43601.21366898148</v>
+        <v>43606.39302083333</v>
       </c>
       <c r="E9" t="s">
-        <v>667</v>
+        <v>703</v>
+      </c>
+      <c r="F9" t="s">
+        <v>704</v>
       </c>
       <c r="J9" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="K9" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="L9" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="M9" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="N9" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="O9" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="P9" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="Q9" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="R9" t="s">
-        <v>676</v>
+        <v>712</v>
+      </c>
+      <c r="S9" t="s">
+        <v>713</v>
       </c>
       <c r="T9" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="U9">
-        <v>523.0</v>
+        <v>642.0</v>
       </c>
       <c r="V9" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="W9">
-        <v>14.0</v>
+        <v>49.0</v>
       </c>
       <c r="X9">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y9" t="s">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="AA9" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="AB9" t="s">
-        <v>456</v>
+        <v>716</v>
       </c>
       <c r="AC9" t="s">
-        <v>679</v>
+        <v>717</v>
       </c>
       <c r="AD9" t="s">
-        <v>327</v>
+        <v>718</v>
       </c>
       <c r="AE9" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="AF9" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="AG9" t="s">
-        <v>682</v>
+        <v>720</v>
       </c>
       <c r="AH9" t="s">
-        <v>458</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>683</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>684</v>
+        <v>721</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>109</v>
       </c>
       <c r="AR9" t="s">
         <v>112</v>
@@ -7918,149 +8180,98 @@
       <c r="AS9" t="s">
         <v>113</v>
       </c>
-      <c r="BA9" t="s">
-        <v>685</v>
+      <c r="AU9" t="s">
+        <v>115</v>
       </c>
       <c r="BB9" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="BC9" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="BD9" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="BE9" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="BF9" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="BG9" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="BH9" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="BI9" t="s">
-        <v>692</v>
+        <v>353</v>
       </c>
       <c r="BJ9" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="BK9" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="BL9" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM9" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN9" t="s">
-        <v>693</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>694</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>695</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>696</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="BS9">
-        <v>10.0</v>
-      </c>
-      <c r="BT9">
-        <v>10.0</v>
-      </c>
-      <c r="BU9">
-        <v>2.0</v>
-      </c>
-      <c r="BV9">
         <v>1.0</v>
       </c>
-      <c r="BW9">
-        <v>2.0</v>
-      </c>
       <c r="BX9" t="s">
-        <v>476</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>476</v>
-      </c>
-      <c r="BZ9">
-        <v>26.0</v>
-      </c>
-      <c r="CA9">
-        <v>26.0</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC9" t="s">
-        <v>698</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="CH9" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="CI9" t="s">
-        <v>700</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>701</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>702</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="CN9" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="CO9" t="s">
-        <v>705</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="CQ9" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="CW9" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX9" t="s">
-        <v>708</v>
-      </c>
-      <c r="CY9" t="s">
+        <v>734</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>735</v>
+      </c>
+      <c r="DP9" t="s">
         <v>709</v>
       </c>
-      <c r="CZ9" t="s">
+      <c r="DQ9" t="s">
         <v>710</v>
       </c>
-      <c r="DD9" t="s">
+      <c r="DR9" t="s">
         <v>711</v>
       </c>
-      <c r="DE9" t="s">
-        <v>712</v>
-      </c>
-      <c r="DP9" t="s">
+      <c r="DS9" t="s">
         <v>713</v>
       </c>
-      <c r="DQ9" t="s">
-        <v>714</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>715</v>
+      <c r="DT9" t="s">
+        <v>736</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>737</v>
       </c>
       <c r="DZ9" t="s">
         <v>157</v>
@@ -8074,277 +8285,160 @@
       <c r="EC9" t="s">
         <v>160</v>
       </c>
-      <c r="EH9" t="s">
-        <v>165</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>167</v>
+      <c r="ED9" t="s">
+        <v>161</v>
       </c>
       <c r="EK9" t="s">
         <v>168</v>
       </c>
-      <c r="EL9" t="s">
-        <v>169</v>
-      </c>
       <c r="FX9" t="s">
-        <v>716</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="GV9" t="s">
-        <v>207</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>208</v>
-      </c>
-      <c r="GX9" t="s">
-        <v>209</v>
-      </c>
-      <c r="HA9" t="s">
-        <v>189</v>
-      </c>
-      <c r="HD9" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE9" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF9" t="s">
-        <v>202</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>717</v>
+        <v>738</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>194</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>738</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>119</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>119</v>
       </c>
       <c r="HR9" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="HS9" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="HT9" t="s">
-        <v>720</v>
-      </c>
-      <c r="HU9" t="s">
-        <v>721</v>
-      </c>
-      <c r="HV9" t="s">
-        <v>722</v>
-      </c>
-      <c r="HW9" t="s">
-        <v>185</v>
-      </c>
-      <c r="HY9" t="s">
-        <v>221</v>
-      </c>
-      <c r="HZ9" t="s">
-        <v>222</v>
-      </c>
-      <c r="IA9" t="s">
-        <v>223</v>
-      </c>
-      <c r="IC9" t="s">
-        <v>225</v>
-      </c>
-      <c r="ID9" t="s">
-        <v>226</v>
-      </c>
-      <c r="IE9" t="s">
-        <v>227</v>
-      </c>
-      <c r="IF9" t="s">
-        <v>228</v>
-      </c>
-      <c r="IH9" t="s">
-        <v>230</v>
-      </c>
-      <c r="II9" t="s">
-        <v>231</v>
-      </c>
-      <c r="IJ9" t="s">
-        <v>232</v>
+        <v>741</v>
       </c>
       <c r="IK9" t="s">
         <v>233</v>
       </c>
-      <c r="IL9" t="s">
-        <v>234</v>
-      </c>
-      <c r="IO9" t="s">
-        <v>237</v>
-      </c>
-      <c r="IR9" t="s">
-        <v>240</v>
-      </c>
-      <c r="IV9" t="s">
-        <v>244</v>
-      </c>
-      <c r="IW9" t="s">
-        <v>245</v>
-      </c>
-      <c r="JA9" t="s">
-        <v>248</v>
-      </c>
-      <c r="JB9" t="s">
-        <v>249</v>
-      </c>
-      <c r="JD9" t="s">
-        <v>251</v>
-      </c>
-      <c r="JJ9" t="s">
-        <v>256</v>
-      </c>
-      <c r="JK9" t="s">
-        <v>257</v>
-      </c>
-      <c r="JN9" t="s">
-        <v>259</v>
-      </c>
-      <c r="JR9" t="s">
-        <v>723</v>
-      </c>
-      <c r="KE9" t="s">
-        <v>274</v>
-      </c>
-      <c r="LG9" t="s">
-        <v>297</v>
-      </c>
-      <c r="LH9" t="s">
-        <v>298</v>
-      </c>
-      <c r="LI9" t="s">
-        <v>299</v>
-      </c>
-      <c r="LS9" t="s">
-        <v>305</v>
-      </c>
-      <c r="LT9" t="s">
-        <v>306</v>
-      </c>
-      <c r="LU9" t="s">
-        <v>307</v>
-      </c>
-      <c r="LV9" t="s">
-        <v>308</v>
-      </c>
-      <c r="LX9" t="s">
-        <v>310</v>
+      <c r="JP9" t="s">
+        <v>119</v>
+      </c>
+      <c r="LN9" t="s">
+        <v>119</v>
+      </c>
+      <c r="LQ9" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR9" t="s">
+        <v>304</v>
+      </c>
+      <c r="MA9" t="s">
+        <v>742</v>
       </c>
       <c r="MC9" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="MD9" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="ME9" t="s">
-        <v>725</v>
-      </c>
-      <c r="MF9" t="s">
-        <v>726</v>
+        <v>745</v>
+      </c>
+      <c r="MK9" t="s">
+        <v>746</v>
       </c>
       <c r="MT9" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.0733356672E10</v>
+        <v>1.0734653362E10</v>
       </c>
       <c r="B10">
-        <v>2.33326486E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C10" s="2">
-        <v>43600.57394675926</v>
+        <v>43601.17997685185</v>
       </c>
       <c r="D10" s="2">
-        <v>43607.40217592593</v>
+        <v>43601.21366898148</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
-      </c>
-      <c r="F10" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="J10" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="K10" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="L10" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="M10" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="N10" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="O10" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="P10" t="s">
-        <v>736</v>
+        <v>755</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>756</v>
+      </c>
+      <c r="R10" t="s">
+        <v>757</v>
       </c>
       <c r="T10" t="s">
-        <v>737</v>
-      </c>
-      <c r="U10" t="s">
-        <v>738</v>
+        <v>758</v>
+      </c>
+      <c r="U10">
+        <v>523.0</v>
       </c>
       <c r="V10" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W10">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="X10">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y10" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="AA10" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="AB10" t="s">
-        <v>740</v>
+        <v>539</v>
       </c>
       <c r="AC10" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="AD10" t="s">
-        <v>740</v>
+        <v>331</v>
       </c>
       <c r="AE10" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="AF10" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="AG10" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="AH10" t="s">
-        <v>745</v>
+        <v>541</v>
       </c>
       <c r="AI10" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="AJ10" t="s">
-        <v>747</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>748</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>749</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>110</v>
+        <v>765</v>
       </c>
       <c r="AR10" t="s">
         <v>112</v>
@@ -8352,110 +8446,149 @@
       <c r="AS10" t="s">
         <v>113</v>
       </c>
-      <c r="AU10" t="s">
-        <v>115</v>
+      <c r="BA10" t="s">
+        <v>766</v>
       </c>
       <c r="BB10" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="BC10" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="BD10" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="BE10" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="BF10" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="BG10" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="BH10" t="s">
         <v>469</v>
       </c>
       <c r="BI10" t="s">
-        <v>385</v>
+        <v>773</v>
       </c>
       <c r="BJ10" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK10" t="s">
-        <v>333</v>
+        <v>470</v>
       </c>
       <c r="BL10" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="BM10" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN10" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="BO10" t="s">
-        <v>757</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>758</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>759</v>
+        <v>775</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>776</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>777</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>778</v>
+      </c>
+      <c r="BS10">
+        <v>10.0</v>
+      </c>
+      <c r="BT10">
+        <v>10.0</v>
+      </c>
+      <c r="BU10">
+        <v>2.0</v>
+      </c>
+      <c r="BV10">
+        <v>1.0</v>
+      </c>
+      <c r="BW10">
+        <v>2.0</v>
       </c>
       <c r="BX10" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY10" t="s">
-        <v>476</v>
+        <v>359</v>
+      </c>
+      <c r="BZ10">
+        <v>26.0</v>
+      </c>
+      <c r="CA10">
+        <v>26.0</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>359</v>
       </c>
       <c r="CC10" t="s">
-        <v>760</v>
+        <v>779</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>780</v>
       </c>
       <c r="CH10" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="CI10" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="CJ10" t="s">
-        <v>757</v>
+        <v>782</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>783</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>784</v>
       </c>
       <c r="CN10" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="CO10" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="CP10" t="s">
-        <v>334</v>
+        <v>787</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>788</v>
       </c>
       <c r="CW10" t="s">
-        <v>334</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>764</v>
+        <v>355</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>789</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>790</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>791</v>
       </c>
       <c r="DD10" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="DE10" t="s">
-        <v>766</v>
-      </c>
-      <c r="DF10" t="s">
-        <v>767</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>768</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>769</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>730</v>
+        <v>793</v>
       </c>
       <c r="DP10" t="s">
-        <v>736</v>
+        <v>794</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>795</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>796</v>
       </c>
       <c r="DZ10" t="s">
         <v>157</v>
@@ -8469,142 +8602,277 @@
       <c r="EC10" t="s">
         <v>160</v>
       </c>
-      <c r="ED10" t="s">
-        <v>161</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>164</v>
+      <c r="EH10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>167</v>
       </c>
       <c r="EK10" t="s">
         <v>168</v>
       </c>
-      <c r="ES10" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>175</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>193</v>
-      </c>
-      <c r="GB10" t="s">
-        <v>179</v>
-      </c>
-      <c r="HH10" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO10" t="s">
-        <v>119</v>
+      <c r="EL10" t="s">
+        <v>169</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>797</v>
+      </c>
+      <c r="GF10" t="s">
+        <v>185</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>207</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>208</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>209</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>189</v>
+      </c>
+      <c r="HD10" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>202</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>798</v>
       </c>
       <c r="HR10" t="s">
-        <v>770</v>
-      </c>
-      <c r="IX10" t="s">
-        <v>246</v>
+        <v>799</v>
+      </c>
+      <c r="HS10" t="s">
+        <v>800</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>801</v>
+      </c>
+      <c r="HU10" t="s">
+        <v>802</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>803</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>185</v>
+      </c>
+      <c r="HY10" t="s">
+        <v>221</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>222</v>
+      </c>
+      <c r="IA10" t="s">
+        <v>223</v>
+      </c>
+      <c r="IC10" t="s">
+        <v>225</v>
+      </c>
+      <c r="ID10" t="s">
+        <v>226</v>
+      </c>
+      <c r="IE10" t="s">
+        <v>227</v>
+      </c>
+      <c r="IF10" t="s">
+        <v>228</v>
+      </c>
+      <c r="IH10" t="s">
+        <v>230</v>
+      </c>
+      <c r="II10" t="s">
+        <v>231</v>
+      </c>
+      <c r="IJ10" t="s">
+        <v>232</v>
+      </c>
+      <c r="IK10" t="s">
+        <v>233</v>
+      </c>
+      <c r="IL10" t="s">
+        <v>234</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>237</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>240</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>244</v>
+      </c>
+      <c r="IW10" t="s">
+        <v>245</v>
+      </c>
+      <c r="JA10" t="s">
+        <v>248</v>
+      </c>
+      <c r="JB10" t="s">
+        <v>249</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>251</v>
       </c>
       <c r="JJ10" t="s">
         <v>256</v>
       </c>
+      <c r="JK10" t="s">
+        <v>257</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>259</v>
+      </c>
       <c r="JR10" t="s">
-        <v>771</v>
-      </c>
-      <c r="LO10" t="s">
-        <v>302</v>
-      </c>
-      <c r="LQ10" t="s">
-        <v>303</v>
+        <v>804</v>
+      </c>
+      <c r="KE10" t="s">
+        <v>274</v>
+      </c>
+      <c r="LG10" t="s">
+        <v>297</v>
+      </c>
+      <c r="LH10" t="s">
+        <v>298</v>
+      </c>
+      <c r="LI10" t="s">
+        <v>299</v>
+      </c>
+      <c r="LS10" t="s">
+        <v>305</v>
+      </c>
+      <c r="LT10" t="s">
+        <v>306</v>
+      </c>
+      <c r="LU10" t="s">
+        <v>307</v>
       </c>
       <c r="LV10" t="s">
         <v>308</v>
       </c>
-      <c r="MB10" t="s">
-        <v>772</v>
+      <c r="LX10" t="s">
+        <v>310</v>
       </c>
       <c r="MC10" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="MD10" t="s">
-        <v>774</v>
-      </c>
-      <c r="MK10" t="s">
-        <v>773</v>
-      </c>
-      <c r="ML10" t="s">
-        <v>775</v>
-      </c>
-      <c r="MM10" t="s">
-        <v>776</v>
+        <v>802</v>
+      </c>
+      <c r="ME10" t="s">
+        <v>806</v>
+      </c>
+      <c r="MF10" t="s">
+        <v>807</v>
       </c>
       <c r="MT10" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.0732842487E10</v>
+        <v>1.0733356672E10</v>
       </c>
       <c r="B11">
         <v>2.33326486E8</v>
       </c>
       <c r="C11" s="2">
-        <v>43600.44827546296</v>
+        <v>43600.57394675926</v>
       </c>
       <c r="D11" s="2">
-        <v>43607.38542824074</v>
+        <v>43607.40217592593</v>
       </c>
       <c r="E11" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="J11" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="K11" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="L11" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="M11" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="N11" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="O11" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="P11" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>785</v>
-      </c>
-      <c r="R11" t="s">
-        <v>786</v>
-      </c>
-      <c r="S11" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="T11" t="s">
-        <v>788</v>
-      </c>
-      <c r="U11">
-        <v>558.0</v>
+        <v>818</v>
+      </c>
+      <c r="U11" t="s">
+        <v>819</v>
       </c>
       <c r="V11" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="X11">
         <v>0.0</v>
       </c>
       <c r="Y11" t="s">
-        <v>450</v>
+        <v>331</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>823</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>824</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>825</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>826</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>828</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>829</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>110</v>
       </c>
       <c r="AR11" t="s">
         <v>112</v>
@@ -8612,597 +8880,600 @@
       <c r="AS11" t="s">
         <v>113</v>
       </c>
+      <c r="AU11" t="s">
+        <v>115</v>
+      </c>
       <c r="BB11" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="BC11" t="s">
-        <v>790</v>
+        <v>832</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>833</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>834</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>835</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>836</v>
       </c>
       <c r="BH11" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="BI11" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="BJ11" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="BK11" t="s">
-        <v>470</v>
+        <v>354</v>
       </c>
       <c r="BL11" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="BM11" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN11" t="s">
-        <v>791</v>
-      </c>
-      <c r="BS11">
-        <v>2.0</v>
+        <v>837</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>838</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>839</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>840</v>
       </c>
       <c r="BX11" t="s">
-        <v>476</v>
+        <v>359</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>359</v>
       </c>
       <c r="CC11" t="s">
-        <v>792</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>793</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>794</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>795</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>796</v>
+        <v>841</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>842</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>837</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>838</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>843</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>844</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>355</v>
       </c>
       <c r="CW11" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC11" t="s">
-        <v>797</v>
+        <v>845</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>846</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>847</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>848</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>849</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>850</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>811</v>
       </c>
       <c r="DP11" t="s">
-        <v>783</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>786</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>785</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>784</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>787</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="DZ11" t="s">
         <v>157</v>
       </c>
+      <c r="EA11" t="s">
+        <v>158</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>159</v>
+      </c>
       <c r="EC11" t="s">
         <v>160</v>
       </c>
+      <c r="ED11" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>164</v>
+      </c>
       <c r="EK11" t="s">
         <v>168</v>
       </c>
-      <c r="FW11" t="s">
+      <c r="ES11" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>175</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>193</v>
+      </c>
+      <c r="GB11" t="s">
+        <v>179</v>
+      </c>
+      <c r="HH11" t="s">
         <v>119</v>
-      </c>
-      <c r="GM11" t="s">
-        <v>196</v>
-      </c>
-      <c r="HA11" t="s">
-        <v>189</v>
       </c>
       <c r="HO11" t="s">
         <v>119</v>
       </c>
       <c r="HR11" t="s">
-        <v>799</v>
-      </c>
-      <c r="HS11" t="s">
-        <v>800</v>
-      </c>
-      <c r="IT11" t="s">
-        <v>242</v>
-      </c>
-      <c r="JK11" t="s">
-        <v>257</v>
-      </c>
-      <c r="JM11" t="s">
-        <v>258</v>
-      </c>
-      <c r="LD11" t="s">
-        <v>295</v>
-      </c>
-      <c r="MA11" t="s">
-        <v>791</v>
+        <v>851</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>246</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>256</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>852</v>
+      </c>
+      <c r="LO11" t="s">
+        <v>302</v>
+      </c>
+      <c r="LQ11" t="s">
+        <v>303</v>
+      </c>
+      <c r="LV11" t="s">
+        <v>308</v>
+      </c>
+      <c r="MB11" t="s">
+        <v>853</v>
+      </c>
+      <c r="MC11" t="s">
+        <v>854</v>
+      </c>
+      <c r="MD11" t="s">
+        <v>855</v>
+      </c>
+      <c r="MK11" t="s">
+        <v>854</v>
       </c>
       <c r="ML11" t="s">
-        <v>801</v>
+        <v>856</v>
+      </c>
+      <c r="MM11" t="s">
+        <v>857</v>
+      </c>
+      <c r="MT11" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.072978601E10</v>
+        <v>1.0732842487E10</v>
       </c>
       <c r="B12">
-        <v>2.26101601E8</v>
+        <v>2.33326486E8</v>
       </c>
       <c r="C12" s="2">
-        <v>43599.48371527778</v>
+        <v>43600.44827546296</v>
       </c>
       <c r="D12" s="2">
-        <v>43607.35056712963</v>
+        <v>43607.38542824074</v>
       </c>
       <c r="E12" t="s">
-        <v>802</v>
+        <v>809</v>
+      </c>
+      <c r="F12" t="s">
+        <v>859</v>
       </c>
       <c r="J12" t="s">
-        <v>803</v>
+        <v>859</v>
       </c>
       <c r="K12" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="L12" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>862</v>
       </c>
       <c r="N12" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="O12" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="P12" t="s">
-        <v>809</v>
+        <v>865</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>866</v>
+      </c>
+      <c r="R12" t="s">
+        <v>867</v>
+      </c>
+      <c r="S12" t="s">
+        <v>868</v>
       </c>
       <c r="T12" t="s">
-        <v>810</v>
-      </c>
-      <c r="U12" t="s">
-        <v>811</v>
+        <v>869</v>
+      </c>
+      <c r="U12">
+        <v>558.0</v>
       </c>
       <c r="V12" t="s">
-        <v>326</v>
+        <v>677</v>
       </c>
       <c r="W12">
-        <v>78.0</v>
+        <v>2.0</v>
       </c>
       <c r="X12">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>813</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>814</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>815</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>816</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>817</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>818</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>109</v>
+        <v>533</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>112</v>
       </c>
       <c r="AS12" t="s">
         <v>113</v>
       </c>
-      <c r="BA12" t="s">
-        <v>819</v>
-      </c>
       <c r="BB12" t="s">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="BC12" t="s">
-        <v>821</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>822</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>823</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>824</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="BH12" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI12" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ12" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK12" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL12" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM12" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN12" t="s">
-        <v>826</v>
+        <v>872</v>
       </c>
       <c r="BS12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BX12" t="s">
-        <v>827</v>
+        <v>359</v>
       </c>
       <c r="CC12" t="s">
-        <v>828</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>829</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>830</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>831</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>832</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>404</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>827</v>
+        <v>873</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>874</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>875</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>876</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>877</v>
       </c>
       <c r="CW12" t="s">
-        <v>334</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>827</v>
+        <v>355</v>
       </c>
       <c r="DC12" t="s">
-        <v>833</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>834</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>835</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>836</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>837</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>838</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>839</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>840</v>
-      </c>
-      <c r="DK12" t="s">
-        <v>841</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>842</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>843</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>844</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
       <c r="DP12" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="DQ12" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="DR12" t="s">
-        <v>848</v>
+        <v>866</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>865</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>868</v>
       </c>
       <c r="DU12" t="s">
-        <v>849</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>850</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="DZ12" t="s">
         <v>157</v>
       </c>
-      <c r="EA12" t="s">
-        <v>158</v>
-      </c>
       <c r="EC12" t="s">
         <v>160</v>
       </c>
-      <c r="EF12" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>164</v>
-      </c>
       <c r="EK12" t="s">
         <v>168</v>
       </c>
-      <c r="ES12" t="s">
-        <v>174</v>
-      </c>
-      <c r="ET12" t="s">
-        <v>175</v>
-      </c>
-      <c r="FX12" t="s">
-        <v>852</v>
-      </c>
-      <c r="GE12" t="s">
-        <v>184</v>
-      </c>
-      <c r="GF12" t="s">
-        <v>185</v>
-      </c>
-      <c r="GU12" t="s">
-        <v>852</v>
-      </c>
-      <c r="HH12" t="s">
+      <c r="FW12" t="s">
         <v>119</v>
       </c>
-      <c r="HQ12" t="s">
-        <v>853</v>
+      <c r="GM12" t="s">
+        <v>196</v>
+      </c>
+      <c r="HA12" t="s">
+        <v>189</v>
+      </c>
+      <c r="HO12" t="s">
+        <v>119</v>
       </c>
       <c r="HR12" t="s">
-        <v>722</v>
+        <v>880</v>
       </c>
       <c r="HS12" t="s">
-        <v>854</v>
-      </c>
-      <c r="HT12" t="s">
-        <v>855</v>
-      </c>
-      <c r="HU12" t="s">
-        <v>856</v>
-      </c>
-      <c r="HV12" t="s">
-        <v>857</v>
-      </c>
-      <c r="HW12" t="s">
-        <v>185</v>
-      </c>
-      <c r="JB12" t="s">
-        <v>249</v>
-      </c>
-      <c r="JC12" t="s">
-        <v>250</v>
+        <v>881</v>
+      </c>
+      <c r="IT12" t="s">
+        <v>242</v>
+      </c>
+      <c r="JK12" t="s">
+        <v>257</v>
       </c>
       <c r="JM12" t="s">
         <v>258</v>
       </c>
-      <c r="JN12" t="s">
-        <v>259</v>
-      </c>
-      <c r="JR12" t="s">
-        <v>853</v>
-      </c>
-      <c r="JU12" t="s">
-        <v>264</v>
-      </c>
-      <c r="KC12" t="s">
-        <v>272</v>
-      </c>
-      <c r="KD12" t="s">
-        <v>273</v>
-      </c>
-      <c r="KE12" t="s">
-        <v>274</v>
-      </c>
-      <c r="LM12" t="s">
-        <v>301</v>
-      </c>
-      <c r="LP12" t="s">
-        <v>858</v>
-      </c>
-      <c r="LQ12" t="s">
-        <v>303</v>
-      </c>
-      <c r="LR12" t="s">
-        <v>304</v>
+      <c r="LD12" t="s">
+        <v>295</v>
       </c>
       <c r="MA12" t="s">
-        <v>859</v>
-      </c>
-      <c r="MB12" t="s">
-        <v>860</v>
-      </c>
-      <c r="MC12" t="s">
-        <v>861</v>
-      </c>
-      <c r="MD12" t="s">
-        <v>862</v>
-      </c>
-      <c r="ME12" t="s">
-        <v>863</v>
-      </c>
-      <c r="MF12" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="ML12" t="s">
-        <v>865</v>
-      </c>
-      <c r="MM12" t="s">
-        <v>866</v>
-      </c>
-      <c r="MN12" t="s">
-        <v>867</v>
-      </c>
-      <c r="MO12" t="s">
-        <v>868</v>
-      </c>
-      <c r="MQ12" t="s">
-        <v>869</v>
-      </c>
-      <c r="MR12" t="s">
-        <v>870</v>
-      </c>
-      <c r="MS12" t="s">
-        <v>871</v>
-      </c>
-      <c r="MT12" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.0721911512E10</v>
+        <v>1.072978601E10</v>
       </c>
       <c r="B13">
-        <v>2.33158854E8</v>
+        <v>2.26101601E8</v>
       </c>
       <c r="C13" s="2">
-        <v>43595.466875</v>
+        <v>43599.48371527778</v>
       </c>
       <c r="D13" s="2">
-        <v>43600.8003125</v>
+        <v>43607.35056712963</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
       <c r="J13" t="s">
-        <v>318</v>
+        <v>884</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>885</v>
       </c>
       <c r="L13" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="M13" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="N13" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="O13" t="s">
-        <v>876</v>
+        <v>889</v>
+      </c>
+      <c r="P13" t="s">
+        <v>890</v>
       </c>
       <c r="T13" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="U13" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="V13" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W13">
-        <v>8.0</v>
+        <v>78.0</v>
       </c>
       <c r="X13">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y13" t="s">
-        <v>327</v>
+        <v>533</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>896</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>898</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>899</v>
       </c>
       <c r="AO13" t="s">
         <v>109</v>
       </c>
-      <c r="AP13" t="s">
-        <v>110</v>
-      </c>
       <c r="AS13" t="s">
         <v>113</v>
       </c>
       <c r="BA13" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="BB13" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="BC13" t="s">
-        <v>881</v>
+        <v>902</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>903</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>904</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>905</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>906</v>
       </c>
       <c r="BH13" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI13" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ13" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK13" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL13" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM13" t="s">
-        <v>335</v>
+        <v>471</v>
       </c>
       <c r="BN13" t="s">
-        <v>336</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>882</v>
+        <v>907</v>
+      </c>
+      <c r="BS13">
+        <v>1.0</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>908</v>
       </c>
       <c r="CC13" t="s">
-        <v>883</v>
+        <v>909</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>910</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>911</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>912</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>913</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>487</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>908</v>
       </c>
       <c r="CW13" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>908</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>914</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>915</v>
       </c>
       <c r="DE13" t="s">
-        <v>884</v>
+        <v>916</v>
       </c>
       <c r="DF13" t="s">
-        <v>885</v>
+        <v>917</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>918</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>919</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>920</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>921</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>922</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>923</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>924</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>925</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>926</v>
       </c>
       <c r="DP13" t="s">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="DQ13" t="s">
-        <v>887</v>
+        <v>928</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>929</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>930</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>931</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>932</v>
       </c>
       <c r="DZ13" t="s">
         <v>157</v>
@@ -9210,53 +9481,140 @@
       <c r="EA13" t="s">
         <v>158</v>
       </c>
-      <c r="EB13" t="s">
-        <v>159</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>165</v>
+      <c r="EC13" t="s">
+        <v>160</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>164</v>
       </c>
       <c r="EK13" t="s">
         <v>168</v>
       </c>
-      <c r="EQ13" t="s">
-        <v>888</v>
-      </c>
-      <c r="FV13" t="s">
-        <v>203</v>
-      </c>
-      <c r="GS13" t="s">
-        <v>206</v>
-      </c>
-      <c r="HG13" t="s">
-        <v>212</v>
-      </c>
-      <c r="HO13" t="s">
+      <c r="ES13" t="s">
+        <v>174</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>175</v>
+      </c>
+      <c r="FX13" t="s">
+        <v>933</v>
+      </c>
+      <c r="GE13" t="s">
+        <v>184</v>
+      </c>
+      <c r="GF13" t="s">
+        <v>185</v>
+      </c>
+      <c r="GU13" t="s">
+        <v>933</v>
+      </c>
+      <c r="HH13" t="s">
         <v>119</v>
       </c>
-      <c r="IL13" t="s">
-        <v>234</v>
-      </c>
-      <c r="JP13" t="s">
-        <v>119</v>
+      <c r="HQ13" t="s">
+        <v>934</v>
+      </c>
+      <c r="HR13" t="s">
+        <v>803</v>
+      </c>
+      <c r="HS13" t="s">
+        <v>935</v>
+      </c>
+      <c r="HT13" t="s">
+        <v>936</v>
+      </c>
+      <c r="HU13" t="s">
+        <v>937</v>
+      </c>
+      <c r="HV13" t="s">
+        <v>938</v>
+      </c>
+      <c r="HW13" t="s">
+        <v>185</v>
+      </c>
+      <c r="JB13" t="s">
+        <v>249</v>
+      </c>
+      <c r="JC13" t="s">
+        <v>250</v>
+      </c>
+      <c r="JM13" t="s">
+        <v>258</v>
+      </c>
+      <c r="JN13" t="s">
+        <v>259</v>
+      </c>
+      <c r="JR13" t="s">
+        <v>934</v>
       </c>
       <c r="JU13" t="s">
         <v>264</v>
       </c>
-      <c r="KG13" t="s">
-        <v>276</v>
-      </c>
-      <c r="LG13" t="s">
-        <v>297</v>
-      </c>
-      <c r="LS13" t="s">
-        <v>305</v>
-      </c>
-      <c r="LT13" t="s">
-        <v>306</v>
+      <c r="KC13" t="s">
+        <v>272</v>
+      </c>
+      <c r="KD13" t="s">
+        <v>273</v>
+      </c>
+      <c r="KE13" t="s">
+        <v>274</v>
+      </c>
+      <c r="LM13" t="s">
+        <v>301</v>
+      </c>
+      <c r="LP13" t="s">
+        <v>939</v>
+      </c>
+      <c r="LQ13" t="s">
+        <v>303</v>
+      </c>
+      <c r="LR13" t="s">
+        <v>304</v>
       </c>
       <c r="MA13" t="s">
-        <v>889</v>
+        <v>940</v>
+      </c>
+      <c r="MB13" t="s">
+        <v>941</v>
+      </c>
+      <c r="MC13" t="s">
+        <v>942</v>
+      </c>
+      <c r="MD13" t="s">
+        <v>943</v>
+      </c>
+      <c r="ME13" t="s">
+        <v>944</v>
+      </c>
+      <c r="MF13" t="s">
+        <v>945</v>
+      </c>
+      <c r="ML13" t="s">
+        <v>946</v>
+      </c>
+      <c r="MM13" t="s">
+        <v>947</v>
+      </c>
+      <c r="MN13" t="s">
+        <v>948</v>
+      </c>
+      <c r="MO13" t="s">
+        <v>949</v>
+      </c>
+      <c r="MQ13" t="s">
+        <v>950</v>
+      </c>
+      <c r="MR13" t="s">
+        <v>951</v>
+      </c>
+      <c r="MS13" t="s">
+        <v>952</v>
+      </c>
+      <c r="MT13" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="14">
@@ -9273,40 +9631,40 @@
         <v>43607.49202546296</v>
       </c>
       <c r="E14" t="s">
-        <v>890</v>
+        <v>954</v>
       </c>
       <c r="F14" t="s">
-        <v>891</v>
+        <v>955</v>
       </c>
       <c r="J14" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="K14" t="s">
-        <v>893</v>
+        <v>957</v>
       </c>
       <c r="L14" t="s">
-        <v>894</v>
+        <v>958</v>
       </c>
       <c r="M14" t="s">
-        <v>895</v>
+        <v>959</v>
       </c>
       <c r="N14" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="O14" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="P14" t="s">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="T14" t="s">
-        <v>899</v>
+        <v>963</v>
       </c>
       <c r="U14">
         <v>663.0</v>
       </c>
       <c r="V14" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="W14">
         <v>4.0</v>
@@ -9315,91 +9673,91 @@
         <v>0.0</v>
       </c>
       <c r="Y14" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA14" t="s">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="AB14" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AC14" t="s">
-        <v>902</v>
+        <v>965</v>
       </c>
       <c r="AD14" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AE14" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
       <c r="AF14" t="s">
-        <v>904</v>
+        <v>967</v>
       </c>
       <c r="AG14" t="s">
-        <v>905</v>
+        <v>968</v>
       </c>
       <c r="AH14" t="s">
-        <v>906</v>
+        <v>969</v>
       </c>
       <c r="AI14" t="s">
-        <v>907</v>
+        <v>970</v>
       </c>
       <c r="AJ14" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="AK14" t="s">
-        <v>909</v>
+        <v>972</v>
       </c>
       <c r="AL14" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="AM14" t="s">
-        <v>910</v>
+        <v>973</v>
       </c>
       <c r="AN14" t="s">
-        <v>911</v>
+        <v>974</v>
       </c>
       <c r="BA14" t="s">
-        <v>912</v>
+        <v>975</v>
       </c>
       <c r="BB14" t="s">
-        <v>913</v>
+        <v>976</v>
       </c>
       <c r="BC14" t="s">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="BH14" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI14" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ14" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK14" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL14" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM14" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN14" t="s">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="BO14" t="s">
-        <v>916</v>
+        <v>979</v>
       </c>
       <c r="BP14" t="s">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="BQ14" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
       <c r="BR14" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
       <c r="BS14">
         <v>5.0</v>
@@ -9417,13 +9775,13 @@
         <v>5.0</v>
       </c>
       <c r="BX14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ14" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA14">
         <v>1.0</v>
@@ -9432,52 +9790,52 @@
         <v>1.0</v>
       </c>
       <c r="CC14" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="CD14" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="CH14" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="CI14" t="s">
-        <v>923</v>
+        <v>986</v>
       </c>
       <c r="CJ14" t="s">
-        <v>924</v>
+        <v>987</v>
       </c>
       <c r="CN14" t="s">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="CO14" t="s">
-        <v>926</v>
+        <v>989</v>
       </c>
       <c r="CP14" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CW14" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC14" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="DD14" t="s">
-        <v>928</v>
+        <v>991</v>
       </c>
       <c r="DE14" t="s">
-        <v>929</v>
+        <v>992</v>
       </c>
       <c r="DF14" t="s">
-        <v>930</v>
+        <v>993</v>
       </c>
       <c r="DG14" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="DO14" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="DP14" t="s">
-        <v>932</v>
+        <v>995</v>
       </c>
       <c r="DZ14" t="s">
         <v>157</v>
@@ -9522,13 +9880,13 @@
         <v>311</v>
       </c>
       <c r="MB14" t="s">
-        <v>933</v>
+        <v>996</v>
       </c>
       <c r="MI14" t="s">
-        <v>934</v>
+        <v>997</v>
       </c>
       <c r="MQ14" t="s">
-        <v>935</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15">
@@ -9545,49 +9903,49 @@
         <v>43606.45914351852</v>
       </c>
       <c r="E15" t="s">
-        <v>936</v>
+        <v>999</v>
       </c>
       <c r="F15" t="s">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="s">
-        <v>938</v>
+        <v>1001</v>
       </c>
       <c r="K15" t="s">
-        <v>939</v>
+        <v>1002</v>
       </c>
       <c r="L15" t="s">
-        <v>940</v>
+        <v>1003</v>
       </c>
       <c r="M15" t="s">
-        <v>941</v>
+        <v>1004</v>
       </c>
       <c r="N15" t="s">
-        <v>942</v>
+        <v>1005</v>
       </c>
       <c r="O15" t="s">
-        <v>943</v>
+        <v>1006</v>
       </c>
       <c r="P15" t="s">
-        <v>944</v>
+        <v>1007</v>
       </c>
       <c r="Q15" t="s">
-        <v>945</v>
+        <v>1008</v>
       </c>
       <c r="R15" t="s">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="S15" t="s">
-        <v>947</v>
+        <v>1010</v>
       </c>
       <c r="T15" t="s">
-        <v>948</v>
+        <v>1011</v>
       </c>
       <c r="U15">
         <v>626.0</v>
       </c>
       <c r="V15" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W15">
         <v>6.0</v>
@@ -9596,25 +9954,25 @@
         <v>0.0</v>
       </c>
       <c r="Y15" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AA15" t="s">
-        <v>949</v>
+        <v>1012</v>
       </c>
       <c r="AB15" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="AC15" t="s">
-        <v>951</v>
+        <v>1014</v>
       </c>
       <c r="AD15" t="s">
-        <v>950</v>
+        <v>1013</v>
       </c>
       <c r="AE15" t="s">
-        <v>952</v>
+        <v>1015</v>
       </c>
       <c r="AF15" t="s">
-        <v>953</v>
+        <v>1016</v>
       </c>
       <c r="AR15" t="s">
         <v>112</v>
@@ -9623,136 +9981,136 @@
         <v>113</v>
       </c>
       <c r="BA15" t="s">
-        <v>954</v>
+        <v>1017</v>
       </c>
       <c r="BB15" t="s">
-        <v>955</v>
+        <v>1018</v>
       </c>
       <c r="BC15" t="s">
-        <v>956</v>
+        <v>1019</v>
       </c>
       <c r="BH15" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI15" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ15" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK15" t="s">
-        <v>957</v>
+        <v>1020</v>
       </c>
       <c r="BL15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM15" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN15" t="s">
-        <v>958</v>
+        <v>1021</v>
       </c>
       <c r="BO15" t="s">
-        <v>959</v>
+        <v>1022</v>
       </c>
       <c r="BP15" t="s">
-        <v>960</v>
+        <v>1023</v>
       </c>
       <c r="BQ15" t="s">
-        <v>961</v>
+        <v>1024</v>
       </c>
       <c r="BR15" t="s">
-        <v>962</v>
+        <v>1025</v>
       </c>
       <c r="BS15" t="s">
-        <v>963</v>
+        <v>1026</v>
       </c>
       <c r="BT15">
         <v>1.0</v>
       </c>
       <c r="BU15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BV15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BW15" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="BX15" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="BY15" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="CC15" t="s">
-        <v>964</v>
+        <v>1027</v>
       </c>
       <c r="CD15" t="s">
-        <v>965</v>
+        <v>1028</v>
       </c>
       <c r="CH15" t="s">
-        <v>966</v>
+        <v>1029</v>
       </c>
       <c r="CI15" t="s">
-        <v>967</v>
+        <v>1030</v>
       </c>
       <c r="CJ15" t="s">
-        <v>968</v>
+        <v>1031</v>
       </c>
       <c r="CN15" t="s">
-        <v>969</v>
+        <v>1032</v>
       </c>
       <c r="CO15" t="s">
-        <v>970</v>
+        <v>1033</v>
       </c>
       <c r="CP15" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="CW15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CX15" t="s">
-        <v>971</v>
+        <v>1034</v>
       </c>
       <c r="DC15" t="s">
-        <v>972</v>
+        <v>1035</v>
       </c>
       <c r="DD15" t="s">
-        <v>973</v>
+        <v>1036</v>
       </c>
       <c r="DE15" t="s">
-        <v>974</v>
+        <v>1037</v>
       </c>
       <c r="DF15" t="s">
-        <v>975</v>
+        <v>1038</v>
       </c>
       <c r="DG15" t="s">
-        <v>976</v>
+        <v>1039</v>
       </c>
       <c r="DH15" t="s">
-        <v>977</v>
+        <v>1040</v>
       </c>
       <c r="DO15" t="s">
-        <v>938</v>
+        <v>1001</v>
       </c>
       <c r="DP15" t="s">
-        <v>944</v>
+        <v>1007</v>
       </c>
       <c r="DQ15" t="s">
-        <v>978</v>
+        <v>1041</v>
       </c>
       <c r="DR15" t="s">
-        <v>943</v>
+        <v>1006</v>
       </c>
       <c r="DU15" t="s">
-        <v>979</v>
+        <v>1042</v>
       </c>
       <c r="DV15" t="s">
-        <v>980</v>
+        <v>1043</v>
       </c>
       <c r="DW15" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="DZ15" t="s">
         <v>157</v>
@@ -9770,7 +10128,7 @@
         <v>178</v>
       </c>
       <c r="FX15" t="s">
-        <v>982</v>
+        <v>1045</v>
       </c>
       <c r="GF15" t="s">
         <v>185</v>
@@ -9782,16 +10140,16 @@
         <v>119</v>
       </c>
       <c r="HR15" t="s">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="HS15" t="s">
-        <v>984</v>
+        <v>1047</v>
       </c>
       <c r="HT15" t="s">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="HU15" t="s">
-        <v>986</v>
+        <v>1049</v>
       </c>
       <c r="HW15" t="s">
         <v>185</v>
@@ -9812,7 +10170,7 @@
         <v>195</v>
       </c>
       <c r="JR15" t="s">
-        <v>987</v>
+        <v>1050</v>
       </c>
       <c r="KB15" t="s">
         <v>271</v>
@@ -9839,43 +10197,43 @@
         <v>308</v>
       </c>
       <c r="MB15" t="s">
-        <v>988</v>
+        <v>1051</v>
       </c>
       <c r="MC15" t="s">
-        <v>989</v>
+        <v>1052</v>
       </c>
       <c r="MD15" t="s">
-        <v>990</v>
+        <v>1053</v>
       </c>
       <c r="ME15" t="s">
-        <v>991</v>
+        <v>1054</v>
       </c>
       <c r="MF15" t="s">
-        <v>992</v>
+        <v>1055</v>
       </c>
       <c r="MG15" t="s">
-        <v>993</v>
+        <v>1056</v>
       </c>
       <c r="MH15" t="s">
-        <v>994</v>
+        <v>1057</v>
       </c>
       <c r="MI15" t="s">
-        <v>995</v>
+        <v>1058</v>
       </c>
       <c r="MK15" t="s">
-        <v>996</v>
+        <v>1059</v>
       </c>
       <c r="ML15" t="s">
-        <v>997</v>
+        <v>1060</v>
       </c>
       <c r="MM15" t="s">
-        <v>998</v>
+        <v>1061</v>
       </c>
       <c r="MS15" t="s">
-        <v>999</v>
+        <v>1062</v>
       </c>
       <c r="MT15" t="s">
-        <v>1000</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16">
@@ -9889,73 +10247,73 @@
         <v>43594.27174768518</v>
       </c>
       <c r="D16" s="2">
-        <v>43605.76094907407</v>
+        <v>43607.65584490741</v>
       </c>
       <c r="E16" t="s">
-        <v>1001</v>
+        <v>1064</v>
       </c>
       <c r="F16" t="s">
-        <v>1002</v>
+        <v>1065</v>
       </c>
       <c r="J16" t="s">
-        <v>1003</v>
+        <v>1066</v>
       </c>
       <c r="K16" t="s">
-        <v>1004</v>
+        <v>1067</v>
       </c>
       <c r="L16" t="s">
-        <v>1005</v>
+        <v>1068</v>
       </c>
       <c r="M16" t="s">
-        <v>1006</v>
+        <v>1069</v>
       </c>
       <c r="N16" t="s">
-        <v>1007</v>
+        <v>1070</v>
       </c>
       <c r="O16" t="s">
-        <v>1008</v>
+        <v>1071</v>
       </c>
       <c r="P16" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="T16" t="s">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="U16">
         <v>523.0</v>
       </c>
       <c r="V16" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="X16">
         <v>116.0</v>
       </c>
       <c r="Y16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA16" t="s">
-        <v>1011</v>
+        <v>1074</v>
       </c>
       <c r="AB16" t="s">
-        <v>901</v>
+        <v>333</v>
       </c>
       <c r="AC16" t="s">
-        <v>1012</v>
+        <v>1075</v>
       </c>
       <c r="AD16" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="AE16" t="s">
-        <v>1014</v>
+        <v>1077</v>
       </c>
       <c r="AF16" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="AG16" t="s">
-        <v>1015</v>
+        <v>1078</v>
       </c>
       <c r="AH16" t="s">
-        <v>1016</v>
+        <v>1079</v>
       </c>
       <c r="AP16" t="s">
         <v>110</v>
@@ -9967,154 +10325,157 @@
         <v>113</v>
       </c>
       <c r="BA16" t="s">
-        <v>1017</v>
+        <v>1080</v>
       </c>
       <c r="BB16" t="s">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="BC16" t="s">
-        <v>1019</v>
+        <v>1082</v>
       </c>
       <c r="BD16" t="s">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="BE16" t="s">
-        <v>1021</v>
+        <v>1084</v>
       </c>
       <c r="BH16" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI16" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ16" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK16" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="BL16" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM16" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN16" t="s">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="BO16" t="s">
-        <v>1023</v>
+        <v>1086</v>
       </c>
       <c r="BP16" t="s">
-        <v>1024</v>
+        <v>1087</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1025</v>
+        <v>1088</v>
       </c>
       <c r="BR16" t="s">
-        <v>1026</v>
+        <v>1089</v>
       </c>
       <c r="BS16" t="s">
-        <v>1027</v>
+        <v>1090</v>
       </c>
       <c r="BT16" t="s">
-        <v>1028</v>
+        <v>1091</v>
       </c>
       <c r="BU16" t="s">
-        <v>1029</v>
+        <v>1092</v>
       </c>
       <c r="BV16" t="s">
-        <v>1030</v>
+        <v>1093</v>
       </c>
       <c r="BW16" t="s">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="BX16" t="s">
-        <v>1032</v>
+        <v>1095</v>
       </c>
       <c r="BY16" t="s">
-        <v>1033</v>
+        <v>1096</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="CA16" t="s">
-        <v>1035</v>
+        <v>1098</v>
       </c>
       <c r="CB16" t="s">
-        <v>1036</v>
+        <v>1099</v>
       </c>
       <c r="CC16" t="s">
-        <v>1037</v>
+        <v>1100</v>
       </c>
       <c r="CD16" t="s">
-        <v>1038</v>
+        <v>1101</v>
       </c>
       <c r="CE16" t="s">
-        <v>1039</v>
+        <v>1102</v>
       </c>
       <c r="CH16" t="s">
-        <v>1040</v>
+        <v>1103</v>
       </c>
       <c r="CI16" t="s">
-        <v>1041</v>
+        <v>1104</v>
       </c>
       <c r="CJ16" t="s">
-        <v>1042</v>
+        <v>1105</v>
       </c>
       <c r="CK16" t="s">
-        <v>1043</v>
+        <v>1106</v>
       </c>
       <c r="CN16" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="CO16" t="s">
-        <v>1044</v>
+        <v>1107</v>
       </c>
       <c r="CP16" t="s">
-        <v>1045</v>
+        <v>1108</v>
       </c>
       <c r="CW16" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC16" t="s">
-        <v>1046</v>
+        <v>1109</v>
       </c>
       <c r="DD16" t="s">
-        <v>1047</v>
+        <v>1110</v>
       </c>
       <c r="DE16" t="s">
-        <v>1048</v>
+        <v>1111</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>1112</v>
       </c>
       <c r="DO16" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
       <c r="DP16" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="DQ16" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="DR16" t="s">
-        <v>1051</v>
+        <v>1115</v>
       </c>
       <c r="DS16" t="s">
-        <v>1052</v>
+        <v>1116</v>
       </c>
       <c r="DT16" t="s">
-        <v>1053</v>
+        <v>1117</v>
       </c>
       <c r="DU16" t="s">
-        <v>1054</v>
+        <v>1118</v>
       </c>
       <c r="DV16" t="s">
-        <v>1046</v>
+        <v>1119</v>
       </c>
       <c r="DW16" t="s">
-        <v>1055</v>
+        <v>1120</v>
       </c>
       <c r="DY16" t="s">
-        <v>1056</v>
+        <v>1121</v>
       </c>
       <c r="DZ16" t="s">
         <v>157</v>
@@ -10159,16 +10520,16 @@
         <v>119</v>
       </c>
       <c r="HR16" t="s">
-        <v>1057</v>
+        <v>1122</v>
       </c>
       <c r="HS16" t="s">
-        <v>1058</v>
+        <v>1123</v>
       </c>
       <c r="HT16" t="s">
         <v>251</v>
       </c>
       <c r="HU16" t="s">
-        <v>1059</v>
+        <v>1124</v>
       </c>
       <c r="IZ16" t="s">
         <v>247</v>
@@ -10213,22 +10574,22 @@
         <v>309</v>
       </c>
       <c r="MB16" t="s">
-        <v>1060</v>
+        <v>1125</v>
       </c>
       <c r="MC16" t="s">
-        <v>1061</v>
+        <v>1126</v>
       </c>
       <c r="MD16" t="s">
-        <v>1062</v>
+        <v>1127</v>
       </c>
       <c r="MF16" t="s">
-        <v>1063</v>
+        <v>1128</v>
       </c>
       <c r="MI16" t="s">
-        <v>1064</v>
+        <v>1129</v>
       </c>
       <c r="MK16" t="s">
-        <v>1065</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17">
@@ -10245,49 +10606,49 @@
         <v>43595.56707175926</v>
       </c>
       <c r="E17" t="s">
-        <v>1066</v>
+        <v>1131</v>
       </c>
       <c r="F17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="J17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="K17" t="s">
-        <v>1068</v>
+        <v>1133</v>
       </c>
       <c r="L17" t="s">
-        <v>1069</v>
+        <v>1134</v>
       </c>
       <c r="M17" t="s">
-        <v>1070</v>
+        <v>1135</v>
       </c>
       <c r="N17" t="s">
-        <v>1071</v>
+        <v>1136</v>
       </c>
       <c r="O17" t="s">
-        <v>1072</v>
+        <v>1137</v>
       </c>
       <c r="P17" t="s">
-        <v>1073</v>
+        <v>1138</v>
       </c>
       <c r="Q17" t="s">
-        <v>1074</v>
+        <v>1139</v>
       </c>
       <c r="R17" t="s">
-        <v>1075</v>
+        <v>1140</v>
       </c>
       <c r="S17" t="s">
-        <v>1076</v>
+        <v>1141</v>
       </c>
       <c r="T17" t="s">
-        <v>1077</v>
+        <v>1142</v>
       </c>
       <c r="U17">
         <v>621.0</v>
       </c>
       <c r="V17" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W17">
         <v>4.0</v>
@@ -10296,106 +10657,106 @@
         <v>0.0</v>
       </c>
       <c r="Y17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA17" t="s">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="AB17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AC17" t="s">
-        <v>1080</v>
+        <v>1145</v>
       </c>
       <c r="AD17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AE17" t="s">
-        <v>1081</v>
+        <v>1146</v>
       </c>
       <c r="AF17" t="s">
-        <v>1082</v>
+        <v>1147</v>
       </c>
       <c r="AG17" t="s">
-        <v>1083</v>
+        <v>1148</v>
       </c>
       <c r="AH17" t="s">
-        <v>1082</v>
+        <v>1147</v>
       </c>
       <c r="AI17" t="s">
-        <v>1084</v>
+        <v>1149</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1085</v>
+        <v>1150</v>
       </c>
       <c r="AK17" t="s">
-        <v>1086</v>
+        <v>1151</v>
       </c>
       <c r="AL17" t="s">
-        <v>1087</v>
+        <v>1152</v>
       </c>
       <c r="AM17" t="s">
-        <v>1088</v>
+        <v>1153</v>
       </c>
       <c r="AN17" t="s">
-        <v>1079</v>
+        <v>1144</v>
       </c>
       <c r="AP17" t="s">
         <v>110</v>
       </c>
       <c r="BA17" t="s">
-        <v>1089</v>
+        <v>1154</v>
       </c>
       <c r="BB17" t="s">
-        <v>1090</v>
+        <v>1155</v>
       </c>
       <c r="BC17" t="s">
-        <v>1091</v>
+        <v>1156</v>
       </c>
       <c r="BD17" t="s">
-        <v>1092</v>
+        <v>1157</v>
       </c>
       <c r="BE17" t="s">
-        <v>1093</v>
+        <v>1158</v>
       </c>
       <c r="BF17" t="s">
-        <v>1094</v>
+        <v>1159</v>
       </c>
       <c r="BG17" t="s">
-        <v>1095</v>
+        <v>1160</v>
       </c>
       <c r="BH17" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI17" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BJ17" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BK17" t="s">
-        <v>957</v>
+        <v>1020</v>
       </c>
       <c r="BL17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM17" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN17" t="s">
-        <v>1096</v>
+        <v>1161</v>
       </c>
       <c r="BO17" t="s">
-        <v>1097</v>
+        <v>1162</v>
       </c>
       <c r="BP17" t="s">
-        <v>1098</v>
+        <v>1163</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1099</v>
+        <v>1164</v>
       </c>
       <c r="BR17" t="s">
-        <v>1100</v>
+        <v>1165</v>
       </c>
       <c r="BS17">
         <v>3.0</v>
@@ -10413,127 +10774,127 @@
         <v>5.0</v>
       </c>
       <c r="BX17" t="s">
-        <v>1101</v>
+        <v>1166</v>
       </c>
       <c r="BY17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CB17" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC17" t="s">
-        <v>1102</v>
+        <v>1167</v>
       </c>
       <c r="CD17" t="s">
-        <v>1103</v>
+        <v>1168</v>
       </c>
       <c r="CE17" t="s">
-        <v>1104</v>
+        <v>1169</v>
       </c>
       <c r="CF17" t="s">
-        <v>1105</v>
+        <v>1170</v>
       </c>
       <c r="CG17" t="s">
-        <v>1106</v>
+        <v>1171</v>
       </c>
       <c r="CH17" t="s">
-        <v>1107</v>
+        <v>1172</v>
       </c>
       <c r="CI17" t="s">
-        <v>1108</v>
+        <v>1173</v>
       </c>
       <c r="CJ17" t="s">
-        <v>1109</v>
+        <v>1174</v>
       </c>
       <c r="CK17" t="s">
-        <v>1110</v>
+        <v>1175</v>
       </c>
       <c r="CN17" t="s">
-        <v>1111</v>
+        <v>1176</v>
       </c>
       <c r="CO17" t="s">
-        <v>1112</v>
+        <v>1177</v>
       </c>
       <c r="CP17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="CQ17" t="s">
-        <v>1113</v>
+        <v>1178</v>
       </c>
       <c r="CR17" t="s">
-        <v>1114</v>
+        <v>1179</v>
       </c>
       <c r="CS17" t="s">
-        <v>1115</v>
+        <v>1180</v>
       </c>
       <c r="CW17" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="CX17" t="s">
-        <v>1080</v>
+        <v>1145</v>
       </c>
       <c r="CY17" t="s">
-        <v>1116</v>
+        <v>1181</v>
       </c>
       <c r="CZ17" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="DA17" t="s">
-        <v>1117</v>
+        <v>1182</v>
       </c>
       <c r="DB17" t="s">
-        <v>1118</v>
+        <v>1183</v>
       </c>
       <c r="DC17" t="s">
-        <v>1119</v>
+        <v>1184</v>
       </c>
       <c r="DD17" t="s">
-        <v>1120</v>
+        <v>1185</v>
       </c>
       <c r="DE17" t="s">
-        <v>1121</v>
+        <v>1186</v>
       </c>
       <c r="DF17" t="s">
-        <v>1122</v>
+        <v>1187</v>
       </c>
       <c r="DG17" t="s">
-        <v>1123</v>
+        <v>1188</v>
       </c>
       <c r="DH17" t="s">
-        <v>1124</v>
+        <v>1189</v>
       </c>
       <c r="DI17" t="s">
-        <v>1125</v>
+        <v>1190</v>
       </c>
       <c r="DJ17" t="s">
-        <v>1126</v>
+        <v>1191</v>
       </c>
       <c r="DK17" t="s">
-        <v>1127</v>
+        <v>1192</v>
       </c>
       <c r="DO17" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="DP17" t="s">
-        <v>1128</v>
+        <v>1193</v>
       </c>
       <c r="DQ17" t="s">
-        <v>1129</v>
+        <v>1194</v>
       </c>
       <c r="DR17" t="s">
-        <v>1130</v>
+        <v>1195</v>
       </c>
       <c r="DS17" t="s">
-        <v>1131</v>
+        <v>1196</v>
       </c>
       <c r="DT17" t="s">
-        <v>1132</v>
+        <v>1197</v>
       </c>
       <c r="EA17" t="s">
         <v>158</v>
@@ -10578,7 +10939,7 @@
         <v>199</v>
       </c>
       <c r="GU17" t="s">
-        <v>1133</v>
+        <v>1198</v>
       </c>
       <c r="GW17" t="s">
         <v>208</v>
@@ -10587,16 +10948,16 @@
         <v>210</v>
       </c>
       <c r="HI17" t="s">
-        <v>1134</v>
+        <v>1199</v>
       </c>
       <c r="HO17" t="s">
         <v>119</v>
       </c>
       <c r="HR17" t="s">
-        <v>1135</v>
+        <v>1200</v>
       </c>
       <c r="HS17" t="s">
-        <v>1136</v>
+        <v>1201</v>
       </c>
       <c r="ID17" t="s">
         <v>226</v>
@@ -10647,7 +11008,7 @@
         <v>297</v>
       </c>
       <c r="LP17" t="s">
-        <v>1137</v>
+        <v>1202</v>
       </c>
       <c r="LQ17" t="s">
         <v>303</v>
@@ -10662,16 +11023,16 @@
         <v>306</v>
       </c>
       <c r="MA17" t="s">
-        <v>1138</v>
+        <v>1203</v>
       </c>
       <c r="MC17" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="MK17" t="s">
-        <v>1139</v>
+        <v>1204</v>
       </c>
       <c r="MT17" t="s">
-        <v>1140</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -10688,46 +11049,46 @@
         <v>43607.38201388889</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="F18" t="s">
-        <v>1141</v>
+        <v>1206</v>
       </c>
       <c r="J18" t="s">
-        <v>1142</v>
+        <v>1207</v>
       </c>
       <c r="K18" t="s">
-        <v>1143</v>
+        <v>1208</v>
       </c>
       <c r="L18" t="s">
-        <v>1143</v>
+        <v>1208</v>
       </c>
       <c r="M18" t="s">
-        <v>1144</v>
+        <v>1209</v>
       </c>
       <c r="N18" t="s">
-        <v>1145</v>
+        <v>1210</v>
       </c>
       <c r="O18" t="s">
-        <v>1146</v>
+        <v>1211</v>
       </c>
       <c r="P18" t="s">
-        <v>1147</v>
+        <v>1212</v>
       </c>
       <c r="Q18" t="s">
-        <v>1148</v>
+        <v>1213</v>
       </c>
       <c r="R18" t="s">
-        <v>1149</v>
+        <v>1214</v>
       </c>
       <c r="T18" t="s">
-        <v>1150</v>
+        <v>1215</v>
       </c>
       <c r="U18" t="s">
-        <v>738</v>
+        <v>819</v>
       </c>
       <c r="V18" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W18">
         <v>18.0</v>
@@ -10736,7 +11097,7 @@
         <v>2.0</v>
       </c>
       <c r="Y18" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AP18" t="s">
         <v>110</v>
@@ -10745,109 +11106,109 @@
         <v>113</v>
       </c>
       <c r="BA18" t="s">
-        <v>1151</v>
+        <v>1216</v>
       </c>
       <c r="BB18" t="s">
-        <v>1152</v>
+        <v>1217</v>
       </c>
       <c r="BC18" t="s">
-        <v>1153</v>
+        <v>1218</v>
       </c>
       <c r="BH18" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI18" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ18" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK18" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL18" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM18" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN18" t="s">
-        <v>791</v>
+        <v>872</v>
       </c>
       <c r="BO18" t="s">
-        <v>1154</v>
+        <v>1219</v>
       </c>
       <c r="BX18" t="s">
-        <v>1155</v>
+        <v>1220</v>
       </c>
       <c r="BY18" t="s">
-        <v>1155</v>
+        <v>1220</v>
       </c>
       <c r="CC18" t="s">
-        <v>1156</v>
+        <v>1221</v>
       </c>
       <c r="CH18" t="s">
-        <v>791</v>
+        <v>872</v>
       </c>
       <c r="CI18" t="s">
-        <v>1157</v>
+        <v>1222</v>
       </c>
       <c r="CN18" t="s">
-        <v>1158</v>
+        <v>1223</v>
       </c>
       <c r="CO18" t="s">
-        <v>1159</v>
+        <v>1224</v>
       </c>
       <c r="CP18" t="s">
-        <v>1160</v>
+        <v>1225</v>
       </c>
       <c r="CW18" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DD18" t="s">
-        <v>1161</v>
+        <v>1226</v>
       </c>
       <c r="DE18" t="s">
-        <v>1162</v>
+        <v>1227</v>
       </c>
       <c r="DF18" t="s">
-        <v>1163</v>
+        <v>1228</v>
       </c>
       <c r="DG18" t="s">
-        <v>1164</v>
+        <v>1229</v>
       </c>
       <c r="DI18" t="s">
-        <v>1165</v>
+        <v>1230</v>
       </c>
       <c r="DJ18" t="s">
-        <v>1166</v>
+        <v>1231</v>
       </c>
       <c r="DL18" t="s">
-        <v>1167</v>
+        <v>1232</v>
       </c>
       <c r="DM18" t="s">
-        <v>1168</v>
+        <v>1233</v>
       </c>
       <c r="DO18" t="s">
-        <v>1142</v>
+        <v>1207</v>
       </c>
       <c r="DP18" t="s">
-        <v>1169</v>
+        <v>1234</v>
       </c>
       <c r="DQ18" t="s">
-        <v>787</v>
+        <v>868</v>
       </c>
       <c r="DR18" t="s">
-        <v>1170</v>
+        <v>1235</v>
       </c>
       <c r="DU18" t="s">
-        <v>1171</v>
+        <v>1236</v>
       </c>
       <c r="DV18" t="s">
-        <v>1172</v>
+        <v>1237</v>
       </c>
       <c r="DW18" t="s">
-        <v>1173</v>
+        <v>1238</v>
       </c>
       <c r="DZ18" t="s">
         <v>157</v>
@@ -10862,13 +11223,13 @@
         <v>168</v>
       </c>
       <c r="EQ18" t="s">
-        <v>1174</v>
+        <v>1239</v>
       </c>
       <c r="FX18" t="s">
-        <v>1175</v>
+        <v>1240</v>
       </c>
       <c r="GU18" t="s">
-        <v>852</v>
+        <v>933</v>
       </c>
       <c r="HH18" t="s">
         <v>119</v>
@@ -10895,28 +11256,28 @@
         <v>307</v>
       </c>
       <c r="MB18" t="s">
-        <v>1176</v>
+        <v>1241</v>
       </c>
       <c r="MC18" t="s">
-        <v>1177</v>
+        <v>1242</v>
       </c>
       <c r="MI18" t="s">
-        <v>1178</v>
+        <v>1243</v>
       </c>
       <c r="MK18" t="s">
-        <v>1179</v>
+        <v>1244</v>
       </c>
       <c r="ML18" t="s">
-        <v>1180</v>
+        <v>1245</v>
       </c>
       <c r="MM18" t="s">
-        <v>1181</v>
+        <v>1246</v>
       </c>
       <c r="MQ18" t="s">
-        <v>1182</v>
+        <v>1247</v>
       </c>
       <c r="MR18" t="s">
-        <v>1183</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -10933,49 +11294,49 @@
         <v>43606.38648148148</v>
       </c>
       <c r="E19" t="s">
-        <v>1184</v>
+        <v>1249</v>
       </c>
       <c r="F19" t="s">
-        <v>1185</v>
+        <v>1250</v>
       </c>
       <c r="J19" t="s">
-        <v>1185</v>
+        <v>1250</v>
       </c>
       <c r="K19" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="L19" t="s">
-        <v>1186</v>
+        <v>1251</v>
       </c>
       <c r="M19" t="s">
-        <v>1187</v>
+        <v>1252</v>
       </c>
       <c r="N19" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="O19" t="s">
-        <v>1188</v>
+        <v>1253</v>
       </c>
       <c r="P19" t="s">
-        <v>1189</v>
+        <v>1254</v>
       </c>
       <c r="Q19" t="s">
-        <v>1190</v>
+        <v>1255</v>
       </c>
       <c r="R19" t="s">
-        <v>1191</v>
+        <v>1256</v>
       </c>
       <c r="S19" t="s">
-        <v>1192</v>
+        <v>1257</v>
       </c>
       <c r="T19" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="U19" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="V19" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W19">
         <v>11.0</v>
@@ -10984,82 +11345,82 @@
         <v>1.0</v>
       </c>
       <c r="Y19" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AO19" t="s">
         <v>109</v>
       </c>
       <c r="BB19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BC19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BD19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BE19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BF19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BG19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="BH19" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI19" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ19" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK19" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL19" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM19" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="BN19" t="s">
-        <v>1194</v>
+        <v>1259</v>
       </c>
       <c r="BS19" t="s">
-        <v>1195</v>
+        <v>1260</v>
       </c>
       <c r="BX19" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC19" t="s">
-        <v>1196</v>
+        <v>1261</v>
       </c>
       <c r="CD19" t="s">
-        <v>1197</v>
+        <v>1262</v>
       </c>
       <c r="CH19" t="s">
-        <v>1198</v>
+        <v>1263</v>
       </c>
       <c r="CI19" t="s">
-        <v>1194</v>
+        <v>1259</v>
       </c>
       <c r="CW19" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DF19" t="s">
-        <v>1199</v>
+        <v>1264</v>
       </c>
       <c r="DG19" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="DH19" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="DP19" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
       <c r="DZ19" t="s">
         <v>157</v>
@@ -11101,10 +11462,10 @@
         <v>303</v>
       </c>
       <c r="MI19" t="s">
-        <v>1200</v>
+        <v>1265</v>
       </c>
       <c r="MJ19" t="s">
-        <v>1201</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -11121,40 +11482,40 @@
         <v>43603.00114583333</v>
       </c>
       <c r="E20" t="s">
-        <v>1202</v>
+        <v>1267</v>
       </c>
       <c r="F20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="J20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="K20" t="s">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="L20" t="s">
-        <v>1205</v>
+        <v>1270</v>
       </c>
       <c r="M20" t="s">
-        <v>1206</v>
+        <v>1271</v>
       </c>
       <c r="N20" t="s">
-        <v>1207</v>
+        <v>1272</v>
       </c>
       <c r="O20" t="s">
-        <v>1208</v>
+        <v>1273</v>
       </c>
       <c r="P20" t="s">
-        <v>1209</v>
+        <v>1274</v>
       </c>
       <c r="T20" t="s">
-        <v>1210</v>
+        <v>1275</v>
       </c>
       <c r="U20" t="s">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="V20" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W20">
         <v>4.0</v>
@@ -11163,7 +11524,7 @@
         <v>0.0</v>
       </c>
       <c r="Y20" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AR20" t="s">
         <v>112</v>
@@ -11172,58 +11533,58 @@
         <v>113</v>
       </c>
       <c r="BA20" t="s">
-        <v>1212</v>
+        <v>1277</v>
       </c>
       <c r="BB20" t="s">
-        <v>1213</v>
+        <v>1278</v>
       </c>
       <c r="BC20" t="s">
-        <v>1214</v>
+        <v>1279</v>
       </c>
       <c r="BD20" t="s">
-        <v>1215</v>
+        <v>1280</v>
       </c>
       <c r="BE20" t="s">
-        <v>1216</v>
+        <v>1281</v>
       </c>
       <c r="BF20" t="s">
-        <v>1217</v>
+        <v>1282</v>
       </c>
       <c r="BG20" t="s">
-        <v>1218</v>
+        <v>1283</v>
       </c>
       <c r="BH20" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="BI20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ20" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK20" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL20" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM20" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN20" t="s">
-        <v>1219</v>
+        <v>1284</v>
       </c>
       <c r="BO20" t="s">
-        <v>1220</v>
+        <v>1285</v>
       </c>
       <c r="BP20" t="s">
-        <v>1221</v>
+        <v>1286</v>
       </c>
       <c r="BQ20" t="s">
-        <v>1222</v>
+        <v>1287</v>
       </c>
       <c r="BR20" t="s">
-        <v>1223</v>
+        <v>1288</v>
       </c>
       <c r="BS20">
         <v>2.0</v>
@@ -11241,85 +11602,85 @@
         <v>40.0</v>
       </c>
       <c r="BX20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CA20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CB20" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC20" t="s">
-        <v>1224</v>
+        <v>1289</v>
       </c>
       <c r="CD20" t="s">
-        <v>1225</v>
+        <v>1290</v>
       </c>
       <c r="CE20" t="s">
-        <v>1226</v>
+        <v>1291</v>
       </c>
       <c r="CH20" t="s">
-        <v>1227</v>
+        <v>1292</v>
       </c>
       <c r="CI20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CJ20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CK20" t="s">
-        <v>827</v>
+        <v>908</v>
       </c>
       <c r="CL20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CM20" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="CN20" t="s">
-        <v>1229</v>
+        <v>1294</v>
       </c>
       <c r="CO20" t="s">
-        <v>1230</v>
+        <v>1295</v>
       </c>
       <c r="CP20" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="CQ20" t="s">
-        <v>1231</v>
+        <v>1296</v>
       </c>
       <c r="CW20" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC20" t="s">
-        <v>1232</v>
+        <v>1297</v>
       </c>
       <c r="DD20" t="s">
-        <v>1233</v>
+        <v>1298</v>
       </c>
       <c r="DE20" t="s">
-        <v>1234</v>
+        <v>1299</v>
       </c>
       <c r="DG20" t="s">
-        <v>1235</v>
+        <v>1300</v>
       </c>
       <c r="DH20" t="s">
-        <v>1236</v>
+        <v>1301</v>
       </c>
       <c r="DO20" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="DP20" t="s">
-        <v>1237</v>
+        <v>1302</v>
       </c>
       <c r="DQ20" t="s">
-        <v>1238</v>
+        <v>1303</v>
       </c>
       <c r="DZ20" t="s">
         <v>157</v>
@@ -11346,13 +11707,13 @@
         <v>119</v>
       </c>
       <c r="HQ20" t="s">
-        <v>1239</v>
+        <v>1304</v>
       </c>
       <c r="JC20" t="s">
         <v>250</v>
       </c>
       <c r="JR20" t="s">
-        <v>1240</v>
+        <v>1305</v>
       </c>
       <c r="LD20" t="s">
         <v>295</v>
@@ -11364,22 +11725,22 @@
         <v>304</v>
       </c>
       <c r="MA20" t="s">
-        <v>1241</v>
+        <v>1306</v>
       </c>
       <c r="MC20" t="s">
-        <v>1242</v>
+        <v>1307</v>
       </c>
       <c r="MF20" t="s">
-        <v>1243</v>
+        <v>1308</v>
       </c>
       <c r="ML20" t="s">
-        <v>1244</v>
+        <v>1309</v>
       </c>
       <c r="MM20" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
       <c r="MS20" t="s">
-        <v>1246</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -11396,46 +11757,46 @@
         <v>43606.41458333333</v>
       </c>
       <c r="E21" t="s">
-        <v>1247</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="J21" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="K21" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="L21" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="M21" t="s">
-        <v>1250</v>
+        <v>1315</v>
       </c>
       <c r="N21" t="s">
-        <v>1251</v>
+        <v>1316</v>
       </c>
       <c r="O21" t="s">
-        <v>1252</v>
+        <v>1317</v>
       </c>
       <c r="P21" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="Q21" t="s">
-        <v>1254</v>
+        <v>1319</v>
       </c>
       <c r="R21" t="s">
-        <v>1255</v>
+        <v>1320</v>
       </c>
       <c r="T21" t="s">
-        <v>1256</v>
+        <v>1321</v>
       </c>
       <c r="U21" t="s">
-        <v>1257</v>
+        <v>1322</v>
       </c>
       <c r="V21" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="W21">
         <v>21.0</v>
@@ -11444,7 +11805,7 @@
         <v>3.0</v>
       </c>
       <c r="Y21" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
       <c r="AP21" t="s">
         <v>110</v>
@@ -11456,136 +11817,136 @@
         <v>120</v>
       </c>
       <c r="BB21" t="s">
-        <v>1259</v>
+        <v>1324</v>
       </c>
       <c r="BC21" t="s">
-        <v>1260</v>
+        <v>1325</v>
       </c>
       <c r="BD21" t="s">
-        <v>1261</v>
+        <v>1326</v>
       </c>
       <c r="BE21" t="s">
-        <v>1262</v>
+        <v>1327</v>
       </c>
       <c r="BF21" t="s">
-        <v>1263</v>
+        <v>1328</v>
       </c>
       <c r="BG21" t="s">
-        <v>1264</v>
+        <v>1329</v>
       </c>
       <c r="BH21" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI21" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BJ21" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="BK21" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="BL21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM21" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN21" t="s">
-        <v>1265</v>
+        <v>1330</v>
       </c>
       <c r="BS21" t="s">
-        <v>1266</v>
+        <v>1331</v>
       </c>
       <c r="BX21" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC21" t="s">
-        <v>1267</v>
+        <v>1332</v>
       </c>
       <c r="CH21" t="s">
-        <v>1268</v>
+        <v>1333</v>
       </c>
       <c r="CI21" t="s">
-        <v>1269</v>
+        <v>1334</v>
       </c>
       <c r="CJ21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CK21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CL21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CM21" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="CN21" t="s">
-        <v>1271</v>
+        <v>1336</v>
       </c>
       <c r="CP21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="CW21" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC21" t="s">
-        <v>1272</v>
+        <v>1337</v>
       </c>
       <c r="DD21" t="s">
-        <v>1273</v>
+        <v>1338</v>
       </c>
       <c r="DE21" t="s">
-        <v>1274</v>
+        <v>1339</v>
       </c>
       <c r="DF21" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
       <c r="DG21" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
       <c r="DH21" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="DI21" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="DJ21" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
       <c r="DK21" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
       <c r="DL21" t="s">
-        <v>1281</v>
+        <v>1346</v>
       </c>
       <c r="DM21" t="s">
-        <v>1282</v>
+        <v>1347</v>
       </c>
       <c r="DN21" t="s">
-        <v>1283</v>
+        <v>1348</v>
       </c>
       <c r="DO21" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="DP21" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
       <c r="DQ21" t="s">
-        <v>1286</v>
+        <v>1351</v>
       </c>
       <c r="DR21" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
       <c r="DU21" t="s">
-        <v>1288</v>
+        <v>1353</v>
       </c>
       <c r="DV21" t="s">
-        <v>1289</v>
+        <v>1354</v>
       </c>
       <c r="DW21" t="s">
-        <v>1290</v>
+        <v>1355</v>
       </c>
       <c r="DZ21" t="s">
         <v>157</v>
@@ -11741,7 +12102,7 @@
         <v>213</v>
       </c>
       <c r="HQ21" t="s">
-        <v>1291</v>
+        <v>1356</v>
       </c>
       <c r="JG21" t="s">
         <v>253</v>
@@ -11834,34 +12195,34 @@
         <v>310</v>
       </c>
       <c r="MB21" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
       <c r="MC21" t="s">
-        <v>1293</v>
+        <v>1358</v>
       </c>
       <c r="MF21" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="MG21" t="s">
-        <v>1295</v>
+        <v>1360</v>
       </c>
       <c r="MH21" t="s">
-        <v>1296</v>
+        <v>1361</v>
       </c>
       <c r="MI21" t="s">
-        <v>1297</v>
+        <v>1362</v>
       </c>
       <c r="MK21" t="s">
-        <v>1298</v>
+        <v>1363</v>
       </c>
       <c r="ML21" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
       <c r="MN21" t="s">
-        <v>1300</v>
+        <v>1365</v>
       </c>
       <c r="MS21" t="s">
-        <v>1301</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -11878,46 +12239,46 @@
         <v>43606.55300925926</v>
       </c>
       <c r="E22" t="s">
-        <v>1302</v>
+        <v>1367</v>
       </c>
       <c r="F22" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
       <c r="J22" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
       <c r="K22" t="s">
-        <v>1305</v>
+        <v>1370</v>
       </c>
       <c r="L22" t="s">
-        <v>1306</v>
+        <v>1371</v>
       </c>
       <c r="M22" t="s">
-        <v>1307</v>
+        <v>1372</v>
       </c>
       <c r="N22" t="s">
-        <v>1308</v>
+        <v>1373</v>
       </c>
       <c r="O22" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="P22" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
       <c r="Q22" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="R22" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
       <c r="T22" t="s">
-        <v>1313</v>
+        <v>1378</v>
       </c>
       <c r="U22" t="s">
-        <v>1314</v>
+        <v>1379</v>
       </c>
       <c r="V22" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W22">
         <v>33.0</v>
@@ -11926,49 +12287,49 @@
         <v>6.0</v>
       </c>
       <c r="Y22" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
       <c r="AO22" t="s">
         <v>109</v>
       </c>
       <c r="BB22" t="s">
-        <v>1315</v>
+        <v>1380</v>
       </c>
       <c r="BC22" t="s">
-        <v>1316</v>
+        <v>1381</v>
       </c>
       <c r="BD22" t="s">
-        <v>1317</v>
+        <v>1382</v>
       </c>
       <c r="BE22" t="s">
-        <v>1318</v>
+        <v>1383</v>
       </c>
       <c r="BH22" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="BI22" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ22" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK22" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL22" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM22" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN22" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
       <c r="BO22" t="s">
-        <v>1320</v>
+        <v>1385</v>
       </c>
       <c r="BP22" t="s">
-        <v>1321</v>
+        <v>1386</v>
       </c>
       <c r="BS22">
         <v>40.0</v>
@@ -11977,79 +12338,79 @@
         <v>5.0</v>
       </c>
       <c r="BU22" t="s">
-        <v>1322</v>
+        <v>1387</v>
       </c>
       <c r="BX22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BY22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="BZ22" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="CC22" t="s">
-        <v>1323</v>
+        <v>1388</v>
       </c>
       <c r="CD22" t="s">
-        <v>1324</v>
+        <v>1389</v>
       </c>
       <c r="CH22" t="s">
-        <v>1325</v>
+        <v>1390</v>
       </c>
       <c r="CI22" t="s">
-        <v>1326</v>
+        <v>1391</v>
       </c>
       <c r="CJ22" t="s">
-        <v>1327</v>
+        <v>1392</v>
       </c>
       <c r="CN22" t="s">
-        <v>1328</v>
+        <v>1393</v>
       </c>
       <c r="CO22" t="s">
-        <v>1329</v>
+        <v>1394</v>
       </c>
       <c r="CP22" t="s">
-        <v>1330</v>
+        <v>1395</v>
       </c>
       <c r="CW22" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC22" t="s">
-        <v>1331</v>
+        <v>1396</v>
       </c>
       <c r="DD22" t="s">
-        <v>1332</v>
+        <v>1397</v>
       </c>
       <c r="DE22" t="s">
-        <v>1333</v>
+        <v>1398</v>
       </c>
       <c r="DF22" t="s">
-        <v>1334</v>
+        <v>1399</v>
       </c>
       <c r="DO22" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
       <c r="DP22" t="s">
-        <v>1335</v>
+        <v>1400</v>
       </c>
       <c r="DQ22" t="s">
-        <v>1336</v>
+        <v>1401</v>
       </c>
       <c r="DR22" t="s">
-        <v>1337</v>
+        <v>1402</v>
       </c>
       <c r="DS22" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="DT22" t="s">
-        <v>1338</v>
+        <v>1403</v>
       </c>
       <c r="DU22" t="s">
-        <v>1339</v>
+        <v>1404</v>
       </c>
       <c r="DV22" t="s">
-        <v>1340</v>
+        <v>1405</v>
       </c>
       <c r="DZ22" t="s">
         <v>157</v>
@@ -12085,19 +12446,19 @@
         <v>119</v>
       </c>
       <c r="HR22" t="s">
-        <v>1341</v>
+        <v>1406</v>
       </c>
       <c r="HS22" t="s">
-        <v>1342</v>
+        <v>1407</v>
       </c>
       <c r="HT22" t="s">
-        <v>1343</v>
+        <v>1408</v>
       </c>
       <c r="HU22" t="s">
-        <v>1344</v>
+        <v>1409</v>
       </c>
       <c r="HV22" t="s">
-        <v>1345</v>
+        <v>1410</v>
       </c>
       <c r="IE22" t="s">
         <v>227</v>
@@ -12145,22 +12506,22 @@
         <v>306</v>
       </c>
       <c r="MA22" t="s">
-        <v>1346</v>
+        <v>1411</v>
       </c>
       <c r="MC22" t="s">
-        <v>1347</v>
+        <v>1412</v>
       </c>
       <c r="MK22" t="s">
-        <v>1348</v>
+        <v>1413</v>
       </c>
       <c r="ML22" t="s">
-        <v>1349</v>
+        <v>1414</v>
       </c>
       <c r="MN22" t="s">
-        <v>1350</v>
+        <v>1415</v>
       </c>
       <c r="MT22" t="s">
-        <v>1351</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -12177,82 +12538,82 @@
         <v>43602.47785879629</v>
       </c>
       <c r="E23" t="s">
-        <v>1352</v>
+        <v>1417</v>
       </c>
       <c r="J23" t="s">
-        <v>1353</v>
+        <v>1418</v>
       </c>
       <c r="K23" t="s">
-        <v>1354</v>
+        <v>1419</v>
       </c>
       <c r="L23" t="s">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="M23" t="s">
-        <v>1356</v>
+        <v>1421</v>
       </c>
       <c r="N23" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
       <c r="O23" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
       <c r="P23" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
       <c r="Q23" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
       <c r="R23" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
       <c r="T23" t="s">
-        <v>1362</v>
+        <v>1427</v>
       </c>
       <c r="U23" t="s">
-        <v>1363</v>
+        <v>1428</v>
       </c>
       <c r="V23" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="Y23" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AP23" t="s">
         <v>110</v>
       </c>
       <c r="BB23" t="s">
-        <v>1364</v>
+        <v>1429</v>
       </c>
       <c r="BC23" t="s">
-        <v>1365</v>
+        <v>1430</v>
       </c>
       <c r="BD23" t="s">
-        <v>1366</v>
+        <v>1431</v>
       </c>
       <c r="BE23" t="s">
-        <v>1367</v>
+        <v>1432</v>
       </c>
       <c r="BH23" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="BI23" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BJ23" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="BK23" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="BL23" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="BM23" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="BN23" t="s">
-        <v>1368</v>
+        <v>1433</v>
       </c>
       <c r="BO23" t="s">
         <v>309</v>
@@ -12270,52 +12631,52 @@
         <v>52.0</v>
       </c>
       <c r="CC23" t="s">
-        <v>1369</v>
+        <v>1434</v>
       </c>
       <c r="CD23" t="s">
-        <v>1370</v>
+        <v>1435</v>
       </c>
       <c r="CH23" t="s">
-        <v>1371</v>
+        <v>1436</v>
       </c>
       <c r="CI23" t="s">
-        <v>1372</v>
+        <v>1437</v>
       </c>
       <c r="CJ23" t="s">
-        <v>1373</v>
+        <v>1438</v>
       </c>
       <c r="CQ23" t="s">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="CW23" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DD23" t="s">
-        <v>1374</v>
+        <v>1439</v>
       </c>
       <c r="DE23" t="s">
-        <v>1375</v>
+        <v>1440</v>
       </c>
       <c r="DG23" t="s">
-        <v>1376</v>
+        <v>1441</v>
       </c>
       <c r="DH23" t="s">
-        <v>1377</v>
+        <v>1442</v>
       </c>
       <c r="DO23" t="s">
-        <v>1378</v>
+        <v>1443</v>
       </c>
       <c r="DP23" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
       <c r="DR23" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
       <c r="DS23" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
       <c r="DT23" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
       <c r="DZ23" t="s">
         <v>157</v>
@@ -12369,19 +12730,19 @@
         <v>119</v>
       </c>
       <c r="HR23" t="s">
-        <v>1379</v>
+        <v>1444</v>
       </c>
       <c r="HS23" t="s">
-        <v>1380</v>
+        <v>1445</v>
       </c>
       <c r="HT23" t="s">
-        <v>1381</v>
+        <v>1446</v>
       </c>
       <c r="HU23" t="s">
-        <v>1382</v>
+        <v>1447</v>
       </c>
       <c r="HV23" t="s">
-        <v>1383</v>
+        <v>1448</v>
       </c>
       <c r="JE23" t="s">
         <v>252</v>
@@ -12417,10 +12778,10 @@
         <v>309</v>
       </c>
       <c r="MB23" t="s">
-        <v>1384</v>
+        <v>1449</v>
       </c>
       <c r="MT23" t="s">
-        <v>1385</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -12437,43 +12798,43 @@
         <v>43607.2653125</v>
       </c>
       <c r="E24" t="s">
-        <v>1386</v>
+        <v>1451</v>
       </c>
       <c r="F24" t="s">
-        <v>1387</v>
+        <v>1452</v>
       </c>
       <c r="J24" t="s">
-        <v>1067</v>
+        <v>1132</v>
       </c>
       <c r="K24" t="s">
-        <v>1388</v>
+        <v>1453</v>
       </c>
       <c r="L24" t="s">
-        <v>1389</v>
+        <v>1454</v>
       </c>
       <c r="M24" t="s">
-        <v>1390</v>
+        <v>1455</v>
       </c>
       <c r="N24" t="s">
-        <v>1391</v>
+        <v>1456</v>
       </c>
       <c r="O24" t="s">
-        <v>1392</v>
+        <v>1457</v>
       </c>
       <c r="P24" t="s">
-        <v>1393</v>
+        <v>1458</v>
       </c>
       <c r="Q24" t="s">
-        <v>1394</v>
+        <v>1459</v>
       </c>
       <c r="T24" t="s">
-        <v>1395</v>
+        <v>1460</v>
       </c>
       <c r="U24" t="s">
-        <v>1396</v>
+        <v>1461</v>
       </c>
       <c r="V24" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="W24">
         <v>1.0</v>
@@ -12482,121 +12843,121 @@
         <v>1.0</v>
       </c>
       <c r="Y24" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="AA24" t="s">
-        <v>1397</v>
+        <v>1462</v>
       </c>
       <c r="AB24" t="s">
-        <v>1398</v>
+        <v>1463</v>
       </c>
       <c r="AC24" t="s">
-        <v>1399</v>
+        <v>1464</v>
       </c>
       <c r="AD24" t="s">
-        <v>1400</v>
+        <v>1465</v>
       </c>
       <c r="AE24" t="s">
-        <v>1401</v>
+        <v>1466</v>
       </c>
       <c r="AF24" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="AG24" t="s">
-        <v>1402</v>
+        <v>1467</v>
       </c>
       <c r="AH24" t="s">
-        <v>1403</v>
+        <v>1468</v>
       </c>
       <c r="AP24" t="s">
         <v>110</v>
       </c>
       <c r="BA24" t="s">
-        <v>1404</v>
+        <v>1469</v>
       </c>
       <c r="BB24" t="s">
-        <v>1405</v>
+        <v>1470</v>
       </c>
       <c r="BC24" t="s">
-        <v>1406</v>
+        <v>1471</v>
       </c>
       <c r="BH24" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="BI24" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="BJ24" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="BK24" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="BL24" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="BM24" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="CH24" t="s">
-        <v>1407</v>
+        <v>1472</v>
       </c>
       <c r="CI24" t="s">
-        <v>1408</v>
+        <v>1473</v>
       </c>
       <c r="CJ24" t="s">
-        <v>1409</v>
+        <v>1474</v>
       </c>
       <c r="CK24" t="s">
-        <v>1410</v>
+        <v>1475</v>
       </c>
       <c r="CL24" t="s">
-        <v>1411</v>
+        <v>1476</v>
       </c>
       <c r="CQ24" t="s">
-        <v>1412</v>
+        <v>1477</v>
       </c>
       <c r="CR24" t="s">
-        <v>1413</v>
+        <v>1478</v>
       </c>
       <c r="CW24" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DC24" t="s">
-        <v>1414</v>
+        <v>1479</v>
       </c>
       <c r="DD24" t="s">
-        <v>1415</v>
+        <v>1480</v>
       </c>
       <c r="DE24" t="s">
-        <v>1416</v>
+        <v>1481</v>
       </c>
       <c r="DO24" t="s">
-        <v>1417</v>
+        <v>1482</v>
       </c>
       <c r="DP24" t="s">
-        <v>1418</v>
+        <v>1483</v>
       </c>
       <c r="DQ24" t="s">
-        <v>1419</v>
+        <v>1484</v>
       </c>
       <c r="DR24" t="s">
-        <v>1420</v>
+        <v>1485</v>
       </c>
       <c r="DS24" t="s">
-        <v>1421</v>
+        <v>1486</v>
       </c>
       <c r="DU24" t="s">
-        <v>1422</v>
+        <v>1487</v>
       </c>
       <c r="DV24" t="s">
-        <v>1423</v>
+        <v>1488</v>
       </c>
       <c r="DW24" t="s">
-        <v>1424</v>
+        <v>1489</v>
       </c>
       <c r="DX24" t="s">
-        <v>1425</v>
+        <v>1490</v>
       </c>
       <c r="DZ24" t="s">
         <v>157</v>
@@ -12614,7 +12975,7 @@
         <v>169</v>
       </c>
       <c r="FX24" t="s">
-        <v>1426</v>
+        <v>1491</v>
       </c>
       <c r="GM24" t="s">
         <v>196</v>
@@ -12644,173 +13005,34 @@
         <v>304</v>
       </c>
       <c r="MA24" t="s">
-        <v>1427</v>
+        <v>1492</v>
       </c>
       <c r="MB24" t="s">
-        <v>1428</v>
+        <v>1493</v>
       </c>
       <c r="MC24" t="s">
-        <v>1429</v>
+        <v>1494</v>
       </c>
       <c r="MD24" t="s">
-        <v>1430</v>
+        <v>1495</v>
       </c>
       <c r="ME24" t="s">
-        <v>1431</v>
+        <v>1496</v>
       </c>
       <c r="MF24" t="s">
-        <v>1432</v>
+        <v>1497</v>
       </c>
       <c r="MI24" t="s">
-        <v>1433</v>
+        <v>1498</v>
       </c>
       <c r="MJ24" t="s">
-        <v>1434</v>
+        <v>1499</v>
       </c>
       <c r="MK24" t="s">
-        <v>1435</v>
+        <v>1500</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25">
-        <v>1.0548992723E10</v>
-      </c>
-      <c r="B25">
-        <v>2.26208327E8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43518.46223379629</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43607.56491898148</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1437</v>
-      </c>
-      <c r="J25" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1438</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1440</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1441</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1442</v>
-      </c>
-      <c r="P25" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T25" t="s">
-        <v>324</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1445</v>
-      </c>
-      <c r="V25" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>1448</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>1449</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>1450</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>470</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>388</v>
-      </c>
-      <c r="CQ25" t="s">
-        <v>339</v>
-      </c>
-      <c r="CW25" t="s">
-        <v>334</v>
-      </c>
-      <c r="DE25" t="s">
-        <v>1451</v>
-      </c>
-      <c r="DH25" t="s">
-        <v>343</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>1452</v>
-      </c>
-      <c r="EO25" t="s">
-        <v>119</v>
-      </c>
-      <c r="FL25" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM25" t="s">
-        <v>196</v>
-      </c>
-      <c r="HH25" t="s">
-        <v>119</v>
-      </c>
-      <c r="HO25" t="s">
-        <v>119</v>
-      </c>
-      <c r="JB25" t="s">
-        <v>249</v>
-      </c>
-      <c r="JC25" t="s">
-        <v>250</v>
-      </c>
-      <c r="JP25" t="s">
-        <v>119</v>
-      </c>
-      <c r="KE25" t="s">
-        <v>274</v>
-      </c>
-      <c r="LS25" t="s">
-        <v>305</v>
-      </c>
-      <c r="MI25" t="s">
-        <v>348</v>
-      </c>
-      <c r="MK25" t="s">
-        <v>1453</v>
-      </c>
-    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -13777,7 +13999,6 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
